--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c31a1cfc8e0b17/HEIG-VD/Travail de bachelor/Planification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1912260C-2779-4A36-989C-556211EB5CB8}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02B4EE5C-8813-4B10-ACB3-8F56231856BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tâches" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tâches!$A$2:$Y$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tâches!$A$2:$Y$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Description</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Affiches / Préparation présentations externe</t>
+  </si>
+  <si>
+    <t>Configuration de la caméra</t>
   </si>
 </sst>
 </file>
@@ -756,12 +759,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -787,6 +784,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,11 +1131,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC71" sqref="AC71"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,12 +1205,12 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="37" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1303,7 @@
       <c r="W3" s="24"/>
       <c r="X3" s="21"/>
       <c r="Y3" s="21">
-        <f t="shared" ref="Y3:Y71" si="0">E3-W3-X3</f>
+        <f t="shared" ref="Y3:Y72" si="0">E3-W3-X3</f>
         <v>0</v>
       </c>
     </row>
@@ -1489,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="39">
-        <f t="shared" ref="F9:F69" si="1">E9/8</f>
+        <f t="shared" ref="F9:F70" si="1">E9/8</f>
         <v>0.5</v>
       </c>
       <c r="G9" s="27"/>
@@ -1512,7 +1515,7 @@
       <c r="U9" s="22"/>
       <c r="V9" s="28"/>
       <c r="W9" s="24">
-        <f t="shared" ref="W9:W71" si="2">SUM(G9:V9)</f>
+        <f t="shared" ref="W9:W72" si="2">SUM(G9:V9)</f>
         <v>2.25</v>
       </c>
       <c r="X9" s="21"/>
@@ -1781,7 +1784,9 @@
         <f>280/60</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="22">
+        <v>7</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -1794,12 +1799,12 @@
       <c r="V16" s="28"/>
       <c r="W16" s="24">
         <f t="shared" ref="W16" si="4">SUM(G16:V16)</f>
-        <v>7.25</v>
+        <v>14.25</v>
       </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21">
         <f t="shared" ref="Y16" si="5">E16-W16-X16</f>
-        <v>8.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -2174,7 +2179,9 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="L27" s="22">
+        <v>2</v>
+      </c>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
@@ -2187,12 +2194,12 @@
       <c r="V27" s="28"/>
       <c r="W27" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X27" s="21"/>
       <c r="Y27" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -2280,7 +2287,10 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
+      <c r="K30" s="22">
+        <f>150/60</f>
+        <v>2.5</v>
+      </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -2294,12 +2304,12 @@
       <c r="V30" s="28"/>
       <c r="W30" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X30" s="21"/>
       <c r="Y30" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -2509,24 +2519,22 @@
     </row>
     <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2"/>
       <c r="D37" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="30">
-        <v>40</v>
-      </c>
-      <c r="F37" s="39">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="27"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="L37" s="22">
+        <f>130/60</f>
+        <v>2.1666666666666665</v>
+      </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -2537,29 +2545,23 @@
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
       <c r="V37" s="28"/>
-      <c r="W37" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="W37" s="24"/>
       <c r="X37" s="21"/>
-      <c r="Y37" s="21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
+      <c r="Y37" s="21"/>
     </row>
     <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
       <c r="D38" s="34" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E38" s="30">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="22"/>
@@ -2584,7 +2586,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -2592,14 +2594,14 @@
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="30">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F39" s="39">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="22"/>
@@ -2624,18 +2626,23 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="21">
         <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="30">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="39"/>
+      <c r="F40" s="39">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="G40" s="27"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -2659,16 +2666,16 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="30"/>
       <c r="F41" s="39"/>
       <c r="G41" s="27"/>
@@ -2687,7 +2694,10 @@
       <c r="T41" s="22"/>
       <c r="U41" s="22"/>
       <c r="V41" s="28"/>
-      <c r="W41" s="24"/>
+      <c r="W41" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="21">
         <f t="shared" si="0"/>
@@ -2696,14 +2706,12 @@
     </row>
     <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="30">
-        <v>4</v>
-      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="39"/>
       <c r="G42" s="27"/>
       <c r="H42" s="22"/>
@@ -2721,24 +2729,23 @@
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
       <c r="V42" s="28"/>
-      <c r="W42" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="W42" s="24"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="30">
+        <v>4</v>
+      </c>
       <c r="F43" s="39"/>
       <c r="G43" s="27"/>
       <c r="H43" s="22"/>
@@ -2756,23 +2763,24 @@
       <c r="T43" s="22"/>
       <c r="U43" s="22"/>
       <c r="V43" s="28"/>
-      <c r="W43" s="24"/>
+      <c r="W43" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X43" s="21"/>
       <c r="Y43" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="30">
-        <v>1</v>
-      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="39"/>
       <c r="G44" s="27"/>
       <c r="H44" s="22"/>
@@ -2794,7 +2802,7 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -2802,10 +2810,10 @@
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="27"/>
@@ -2828,7 +2836,7 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -2836,7 +2844,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E46" s="30">
         <v>8</v>
@@ -2867,12 +2875,14 @@
     </row>
     <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="30">
+        <v>8</v>
+      </c>
       <c r="F47" s="39"/>
       <c r="G47" s="27"/>
       <c r="H47" s="22"/>
@@ -2890,26 +2900,21 @@
       <c r="T47" s="22"/>
       <c r="U47" s="22"/>
       <c r="V47" s="28"/>
-      <c r="W47" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="W47" s="24"/>
       <c r="X47" s="21"/>
       <c r="Y47" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="30">
-        <v>32</v>
-      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="39"/>
       <c r="G48" s="27"/>
       <c r="H48" s="22"/>
@@ -2927,21 +2932,26 @@
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
       <c r="V48" s="28"/>
-      <c r="W48" s="24"/>
+      <c r="W48" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X48" s="21"/>
       <c r="Y48" s="21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="30">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="30"/>
       <c r="F49" s="39"/>
       <c r="G49" s="27"/>
       <c r="H49" s="22"/>
@@ -2959,23 +2969,20 @@
       <c r="T49" s="22"/>
       <c r="U49" s="22"/>
       <c r="V49" s="28"/>
-      <c r="W49" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="W49" s="24"/>
       <c r="X49" s="21"/>
       <c r="Y49" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="34"/>
+      <c r="A50" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="30"/>
       <c r="F50" s="39"/>
       <c r="G50" s="27"/>
@@ -2994,7 +3001,10 @@
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
       <c r="V50" s="28"/>
-      <c r="W50" s="24"/>
+      <c r="W50" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X50" s="21"/>
       <c r="Y50" s="21">
         <f t="shared" si="0"/>
@@ -3003,14 +3013,12 @@
     </row>
     <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="30">
-        <v>1</v>
-      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="39"/>
       <c r="G51" s="27"/>
       <c r="H51" s="22"/>
@@ -3032,7 +3040,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -3040,14 +3048,13 @@
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
       <c r="D52" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="30">
-        <f>35/60</f>
-        <v>0.58333333333333337</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
@@ -3067,19 +3074,22 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
-      <c r="B53" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="34"/>
+      <c r="D53" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="E53" s="30"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="30">
+        <f>35/60</f>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
@@ -3104,14 +3114,12 @@
     </row>
     <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="30">
-        <v>0</v>
-      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="39"/>
       <c r="G54" s="27"/>
       <c r="H54" s="22"/>
@@ -3141,7 +3149,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="30">
         <v>0</v>
@@ -3175,7 +3183,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E56" s="30">
         <v>0</v>
@@ -3206,12 +3214,14 @@
     </row>
     <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
-      <c r="B57" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="30"/>
+      <c r="D57" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="30">
+        <v>0</v>
+      </c>
       <c r="F57" s="39"/>
       <c r="G57" s="27"/>
       <c r="H57" s="22"/>
@@ -3229,10 +3239,7 @@
       <c r="T57" s="22"/>
       <c r="U57" s="22"/>
       <c r="V57" s="28"/>
-      <c r="W57" s="24">
-        <f t="shared" ref="W57" si="6">SUM(G57:V57)</f>
-        <v>0</v>
-      </c>
+      <c r="W57" s="24"/>
       <c r="X57" s="21"/>
       <c r="Y57" s="21">
         <f t="shared" si="0"/>
@@ -3241,11 +3248,11 @@
     </row>
     <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="34" t="s">
-        <v>33</v>
-      </c>
+      <c r="D58" s="34"/>
       <c r="E58" s="30"/>
       <c r="F58" s="39"/>
       <c r="G58" s="27"/>
@@ -3264,7 +3271,10 @@
       <c r="T58" s="22"/>
       <c r="U58" s="22"/>
       <c r="V58" s="28"/>
-      <c r="W58" s="24"/>
+      <c r="W58" s="24">
+        <f t="shared" ref="W58" si="6">SUM(G58:V58)</f>
+        <v>0</v>
+      </c>
       <c r="X58" s="21"/>
       <c r="Y58" s="21">
         <f t="shared" si="0"/>
@@ -3272,10 +3282,12 @@
       </c>
     </row>
     <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="34" t="s">
+        <v>33</v>
+      </c>
       <c r="E59" s="30"/>
       <c r="F59" s="39"/>
       <c r="G59" s="27"/>
@@ -3332,12 +3344,10 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="30"/>
       <c r="F61" s="39"/>
       <c r="G61" s="27"/>
@@ -3356,10 +3366,7 @@
       <c r="T61" s="22"/>
       <c r="U61" s="22"/>
       <c r="V61" s="28"/>
-      <c r="W61" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="W61" s="24"/>
       <c r="X61" s="21"/>
       <c r="Y61" s="21">
         <f t="shared" si="0"/>
@@ -3367,19 +3374,14 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="30">
-        <v>0</v>
-      </c>
-      <c r="F62" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A62" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="27"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -3411,7 +3413,7 @@
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="34" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E63" s="30">
         <v>0</v>
@@ -3451,7 +3453,7 @@
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E64" s="30">
         <v>0</v>
@@ -3490,8 +3492,12 @@
       <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="30"/>
+      <c r="D65" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="30">
+        <v>0</v>
+      </c>
       <c r="F65" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3523,12 +3529,10 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="30"/>
       <c r="F66" s="39">
         <f t="shared" si="1"/>
@@ -3562,7 +3566,7 @@
     </row>
     <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -3598,32 +3602,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="30">
+    <row r="68" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="39">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="G68" s="27">
-        <f>30/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="H68" s="22">
-        <v>2.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="22"/>
-      <c r="J68" s="22">
-        <f>45/60</f>
-        <v>0.75</v>
-      </c>
+      <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
@@ -3638,34 +3632,45 @@
       <c r="V68" s="28"/>
       <c r="W68" s="24">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="X68" s="21"/>
       <c r="Y68" s="21">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="34"/>
       <c r="E69" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" s="39">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="27">
+        <f>30/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="22">
+        <v>2.5</v>
+      </c>
       <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="J69" s="22">
+        <f>45/60</f>
+        <v>0.75</v>
+      </c>
       <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
+      <c r="L69" s="22">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
@@ -3678,41 +3683,32 @@
       <c r="V69" s="28"/>
       <c r="W69" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="X69" s="21"/>
       <c r="Y69" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-8.3333333333333037E-2</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="34"/>
       <c r="E70" s="30">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F70" s="39">
-        <f t="shared" ref="F70:F71" si="7">E70/8</f>
-        <v>1.75</v>
-      </c>
-      <c r="G70" s="27">
-        <f>40/60</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H70" s="22">
-        <f>40/60</f>
-        <v>0.66666666666666663</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="22"/>
       <c r="I70" s="22"/>
-      <c r="J70" s="22">
-        <f>45/60</f>
-        <v>0.75</v>
-      </c>
+      <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
@@ -3726,147 +3722,199 @@
       <c r="U70" s="22"/>
       <c r="V70" s="28"/>
       <c r="W70" s="24">
-        <f t="shared" ref="W70" si="8">SUM(G70:V70)</f>
-        <v>2.083333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X70" s="21"/>
       <c r="Y70" s="21">
         <f t="shared" si="0"/>
-        <v>11.916666666666668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="30">
+        <v>14</v>
+      </c>
+      <c r="F71" s="39">
+        <f t="shared" ref="F71:F72" si="7">E71/8</f>
+        <v>1.75</v>
+      </c>
+      <c r="G71" s="27">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H71" s="22">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22">
+        <f>45/60</f>
+        <v>0.75</v>
+      </c>
+      <c r="K71" s="22">
+        <f>25/60</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="24">
+        <f t="shared" ref="W71" si="8">SUM(G71:V71)</f>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46">
+      <c r="C72" s="42"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44">
         <v>4</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F72" s="45">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="49">
+      <c r="G72" s="46"/>
+      <c r="H72" s="47">
         <v>1</v>
       </c>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49">
+      <c r="I72" s="47"/>
+      <c r="J72" s="47">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="49"/>
-      <c r="V71" s="50"/>
-      <c r="W71" s="51">
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="48"/>
+      <c r="W72" s="49">
         <f t="shared" si="2"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52">
+      <c r="X72" s="50"/>
+      <c r="Y72" s="50">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="1" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="s">
+    <row r="73" spans="1:25" s="1" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55">
-        <f t="shared" ref="E72:Y72" si="9">SUM(E3:E71)</f>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="53">
+        <f t="shared" ref="E73:Y73" si="9">SUM(E3:E72)</f>
         <v>412</v>
       </c>
-      <c r="F72" s="56"/>
-      <c r="G72" s="55">
+      <c r="F73" s="54"/>
+      <c r="G73" s="53">
         <f t="shared" si="9"/>
         <v>3.083333333333333</v>
       </c>
-      <c r="H72" s="57">
+      <c r="H73" s="55">
         <f t="shared" si="9"/>
         <v>7.25</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I73" s="55">
         <f t="shared" si="9"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="J72" s="57">
+      <c r="J73" s="55">
         <f t="shared" si="9"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="K72" s="57">
+      <c r="K73" s="55">
         <f t="shared" si="9"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L72" s="57">
+        <v>7.5833333333333339</v>
+      </c>
+      <c r="L73" s="55">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="57">
+        <v>11.5</v>
+      </c>
+      <c r="M73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N72" s="57">
+      <c r="N73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O72" s="57">
+      <c r="O73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P72" s="57">
+      <c r="P73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="57">
+      <c r="Q73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R72" s="57">
+      <c r="R73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S72" s="57">
+      <c r="S73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T72" s="57">
+      <c r="T73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U72" s="57">
+      <c r="U73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V72" s="56">
+      <c r="V73" s="54">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W72" s="58">
+      <c r="W73" s="56">
         <f t="shared" si="9"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="X72" s="57">
+        <v>30.583333333333332</v>
+      </c>
+      <c r="X73" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y72" s="59">
+      <c r="Y73" s="57">
         <f t="shared" si="9"/>
-        <v>393.66666666666663</v>
+        <v>381.41666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -3943,20 +3991,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3977,18 +4025,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\HEIG-VD\Travail de bachelor\AutonomousRcCar\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDE15C38-F613-4187-B5F9-DA6F0D6456D7}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1CA6036-B215-4A1F-949D-26DA2CEAD8AC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,12 +1006,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -1056,6 +1050,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,8 +1400,8 @@
   <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M71" sqref="M71"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="AD1" s="19"/>
       <c r="AE1" s="18"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="34" t="s">
         <v>32</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="56" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="22" t="s">
@@ -1557,7 +1557,7 @@
       <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="58" t="s">
+      <c r="W2" s="56" t="s">
         <v>71</v>
       </c>
       <c r="X2" s="22" t="s">
@@ -1575,7 +1575,7 @@
       <c r="AB2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AC2" s="69" t="s">
         <v>77</v>
       </c>
       <c r="AD2" s="22" t="s">
@@ -1584,13 +1584,13 @@
       <c r="AE2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="63" t="s">
+      <c r="AF2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
     </row>
     <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1608,8 +1608,8 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1617,23 +1617,23 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="56"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="54"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
       <c r="AB3" s="21"/>
-      <c r="AC3" s="72"/>
+      <c r="AC3" s="70"/>
       <c r="AD3" s="23"/>
       <c r="AE3" s="20"/>
-      <c r="AF3" s="64">
-        <f>E3-AD3-AE3</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
+      <c r="AF3" s="62">
+        <f t="shared" ref="AF3:AF36" si="0">E3-AD3-AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
     </row>
     <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -1651,8 +1651,8 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1660,23 +1660,23 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="56"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="54"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="72"/>
+      <c r="AC4" s="70"/>
       <c r="AD4" s="23"/>
       <c r="AE4" s="20"/>
-      <c r="AF4" s="64">
-        <f>E4-AD4-AE4</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
+      <c r="AF4" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
     </row>
     <row r="5" spans="1:36" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -1699,8 +1699,8 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1708,23 +1708,23 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="56"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="54"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
-      <c r="AC5" s="72"/>
+      <c r="AC5" s="70"/>
       <c r="AD5" s="23"/>
       <c r="AE5" s="20"/>
-      <c r="AF5" s="64">
-        <f>E5-AD5-AE5</f>
+      <c r="AF5" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
     </row>
     <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -1747,8 +1747,8 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1756,23 +1756,23 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="56"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="54"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
-      <c r="AC6" s="72"/>
+      <c r="AC6" s="70"/>
       <c r="AD6" s="23"/>
       <c r="AE6" s="20"/>
-      <c r="AF6" s="64">
-        <f>E6-AD6-AE6</f>
+      <c r="AF6" s="62">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
-      <c r="AJ6" s="68"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
     </row>
     <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -1794,8 +1794,8 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1803,23 +1803,23 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="56"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="54"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
-      <c r="AC7" s="72"/>
+      <c r="AC7" s="70"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="20"/>
-      <c r="AF7" s="64">
-        <f>E7-AD7-AE7</f>
+      <c r="AF7" s="62">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -1837,8 +1837,8 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1846,23 +1846,23 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="54"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
-      <c r="AC8" s="72"/>
+      <c r="AC8" s="70"/>
       <c r="AD8" s="23"/>
       <c r="AE8" s="20"/>
-      <c r="AF8" s="64">
-        <f>E8-AD8-AE8</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="68"/>
-      <c r="AJ8" s="68"/>
+      <c r="AF8" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
     </row>
     <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="36">
-        <f t="shared" ref="F9:F70" si="0">E9/8</f>
+        <f t="shared" ref="F9:F70" si="1">E9/8</f>
         <v>0.5</v>
       </c>
       <c r="G9" s="25"/>
@@ -1888,8 +1888,8 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="56"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1897,26 +1897,26 @@
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="56"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="54"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
-      <c r="AC9" s="72"/>
+      <c r="AC9" s="70"/>
       <c r="AD9" s="23">
         <f>SUM(G9:V9)</f>
         <v>2.25</v>
       </c>
       <c r="AE9" s="20"/>
-      <c r="AF9" s="64">
-        <f>E9-AD9-AE9</f>
+      <c r="AF9" s="62">
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
     </row>
     <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -1936,8 +1936,8 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1945,23 +1945,23 @@
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="56"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="54"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
-      <c r="AC10" s="72"/>
+      <c r="AC10" s="70"/>
       <c r="AD10" s="23"/>
       <c r="AE10" s="20"/>
-      <c r="AF10" s="64">
-        <f>E10-AD10-AE10</f>
+      <c r="AF10" s="62">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="68"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
     </row>
     <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G11" s="25"/>
@@ -1984,8 +1984,8 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1993,26 +1993,26 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="56"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="54"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
-      <c r="AC11" s="72"/>
+      <c r="AC11" s="70"/>
       <c r="AD11" s="23">
         <f>SUM(G11:V11)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="20"/>
-      <c r="AF11" s="64">
-        <f>E11-AD11-AE11</f>
+      <c r="AF11" s="62">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
     </row>
     <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -2025,7 +2025,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12" s="25"/>
@@ -2035,8 +2035,8 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -2044,26 +2044,26 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="56"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="54"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
-      <c r="AC12" s="72"/>
+      <c r="AC12" s="70"/>
       <c r="AD12" s="23">
         <f>SUM(G12:V12)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="20"/>
-      <c r="AF12" s="64">
-        <f>E12-AD12-AE12</f>
+      <c r="AF12" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="68"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
     </row>
     <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2076,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13" s="25"/>
@@ -2086,8 +2086,8 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="56"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -2095,26 +2095,26 @@
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="56"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="54"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
-      <c r="AC13" s="72"/>
+      <c r="AC13" s="70"/>
       <c r="AD13" s="23">
         <f>SUM(G13:V13)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="20"/>
-      <c r="AF13" s="64">
-        <f>E13-AD13-AE13</f>
+      <c r="AF13" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
     </row>
     <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -2125,7 +2125,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="27"/>
       <c r="F14" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="25"/>
@@ -2135,8 +2135,8 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -2144,23 +2144,23 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="56"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="54"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="72"/>
+      <c r="AC14" s="70"/>
       <c r="AD14" s="23"/>
       <c r="AE14" s="20"/>
-      <c r="AF14" s="64">
-        <f>E14-AD14-AE14</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
+      <c r="AF14" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
     </row>
     <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -2186,8 +2186,8 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="56"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -2195,26 +2195,26 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="56"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="54"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
-      <c r="AC15" s="72"/>
+      <c r="AC15" s="70"/>
       <c r="AD15" s="23">
         <f>SUM(G15:V15)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="64">
-        <f>E15-AD15-AE15</f>
+      <c r="AF15" s="62">
+        <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
     </row>
     <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -2227,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="36">
-        <f t="shared" ref="F16" si="1">E16/8</f>
+        <f t="shared" ref="F16" si="2">E16/8</f>
         <v>2</v>
       </c>
       <c r="G16" s="25"/>
@@ -2248,8 +2248,8 @@
         <v>7</v>
       </c>
       <c r="M16" s="21"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -2257,26 +2257,26 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="56"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="54"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="72"/>
+      <c r="AC16" s="70"/>
       <c r="AD16" s="23">
         <f>SUM(G16:V16)</f>
         <v>14.25</v>
       </c>
       <c r="AE16" s="20"/>
-      <c r="AF16" s="64">
-        <f>E16-AD16-AE16</f>
+      <c r="AF16" s="62">
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
     </row>
     <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -2294,8 +2294,8 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="54"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -2303,26 +2303,26 @@
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="56"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="54"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
-      <c r="AC17" s="72"/>
+      <c r="AC17" s="70"/>
       <c r="AD17" s="23">
         <f>SUM(G17:V17)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="20"/>
-      <c r="AF17" s="64">
-        <f>E17-AD17-AE17</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
+      <c r="AF17" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
     </row>
     <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
@@ -2340,8 +2340,8 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="54"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
@@ -2349,23 +2349,23 @@
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="56"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="54"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="72"/>
+      <c r="AC18" s="70"/>
       <c r="AD18" s="23"/>
       <c r="AE18" s="20"/>
-      <c r="AF18" s="64">
-        <f>E18-AD18-AE18</f>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
+      <c r="AF18" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
     </row>
     <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -2388,8 +2388,8 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="56"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -2397,26 +2397,26 @@
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="56"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="54"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="72"/>
+      <c r="AC19" s="70"/>
       <c r="AD19" s="23">
         <f>SUM(G19:V19)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="20"/>
-      <c r="AF19" s="64">
-        <f>E19-AD19-AE19</f>
+      <c r="AF19" s="62">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
     </row>
     <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
@@ -2434,8 +2434,8 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="54"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -2443,23 +2443,23 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="56"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="54"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="72"/>
+      <c r="AC20" s="70"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="20"/>
-      <c r="AF20" s="64">
-        <f>E20-AD20-AE20</f>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
+      <c r="AF20" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
     </row>
     <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
@@ -2479,8 +2479,8 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="56"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
@@ -2488,23 +2488,23 @@
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="56"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="54"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="72"/>
+      <c r="AC21" s="70"/>
       <c r="AD21" s="23"/>
       <c r="AE21" s="20"/>
-      <c r="AF21" s="64">
-        <f>E21-AD21-AE21</f>
+      <c r="AF21" s="62">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
     </row>
     <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
@@ -2524,8 +2524,8 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="56"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="54"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -2533,23 +2533,23 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="56"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="54"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="72"/>
+      <c r="AC22" s="70"/>
       <c r="AD22" s="23"/>
       <c r="AE22" s="20"/>
-      <c r="AF22" s="64">
-        <f>E22-AD22-AE22</f>
+      <c r="AF22" s="62">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
     </row>
     <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
@@ -2569,8 +2569,8 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="54"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
@@ -2578,23 +2578,23 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="56"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="54"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
-      <c r="AC23" s="72"/>
+      <c r="AC23" s="70"/>
       <c r="AD23" s="23"/>
       <c r="AE23" s="20"/>
-      <c r="AF23" s="64">
-        <f>E23-AD23-AE23</f>
+      <c r="AF23" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="68"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
     </row>
     <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -2612,8 +2612,8 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="54"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
@@ -2621,23 +2621,23 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="54"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="72"/>
+      <c r="AC24" s="70"/>
       <c r="AD24" s="23"/>
       <c r="AE24" s="20"/>
-      <c r="AF24" s="64">
-        <f>E24-AD24-AE24</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="68"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="68"/>
+      <c r="AF24" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
     </row>
     <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -2650,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G25" s="25"/>
@@ -2660,8 +2660,8 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="56"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="54"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -2669,26 +2669,26 @@
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="56"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="54"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
-      <c r="AC25" s="72"/>
+      <c r="AC25" s="70"/>
       <c r="AD25" s="23">
         <f>SUM(G25:V25)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="20"/>
-      <c r="AF25" s="64">
-        <f>E25-AD25-AE25</f>
+      <c r="AF25" s="62">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="68"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
     </row>
     <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="25"/>
@@ -2711,8 +2711,8 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="56"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
@@ -2720,26 +2720,26 @@
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="56"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="54"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="72"/>
+      <c r="AC26" s="70"/>
       <c r="AD26" s="23">
         <f>SUM(G26:V26)</f>
         <v>0</v>
       </c>
       <c r="AE26" s="20"/>
-      <c r="AF26" s="64">
-        <f>E26-AD26-AE26</f>
+      <c r="AF26" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="68"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
     </row>
     <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
@@ -2752,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G27" s="25"/>
@@ -2764,8 +2764,8 @@
         <v>2</v>
       </c>
       <c r="M27" s="21"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
@@ -2773,26 +2773,26 @@
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="56"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="54"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
-      <c r="AC27" s="72"/>
+      <c r="AC27" s="70"/>
       <c r="AD27" s="23">
         <f>SUM(G27:V27)</f>
         <v>2</v>
       </c>
       <c r="AE27" s="20"/>
-      <c r="AF27" s="64">
-        <f>E27-AD27-AE27</f>
+      <c r="AF27" s="62">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="68"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
     </row>
     <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
@@ -2810,8 +2810,8 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
@@ -2819,26 +2819,26 @@
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="56"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="54"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="72"/>
+      <c r="AC28" s="70"/>
       <c r="AD28" s="23">
         <f>SUM(G28:V28)</f>
         <v>0</v>
       </c>
       <c r="AE28" s="20"/>
-      <c r="AF28" s="64">
-        <f>E28-AD28-AE28</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="68"/>
+      <c r="AF28" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
     </row>
     <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -2856,8 +2856,8 @@
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="54"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
@@ -2865,23 +2865,23 @@
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="56"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="54"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
-      <c r="AC29" s="72"/>
+      <c r="AC29" s="70"/>
       <c r="AD29" s="23"/>
       <c r="AE29" s="20"/>
-      <c r="AF29" s="64">
-        <f>E29-AD29-AE29</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="68"/>
+      <c r="AF29" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
     </row>
     <row r="30" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
@@ -2894,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G30" s="25"/>
@@ -2907,8 +2907,8 @@
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="54"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
@@ -2916,26 +2916,26 @@
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="56"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="54"/>
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
-      <c r="AC30" s="72"/>
+      <c r="AC30" s="70"/>
       <c r="AD30" s="23">
         <f>SUM(G30:V30)</f>
         <v>2.5</v>
       </c>
       <c r="AE30" s="20"/>
-      <c r="AF30" s="64">
-        <f>E30-AD30-AE30</f>
+      <c r="AF30" s="62">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="68"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
     </row>
     <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
@@ -2960,8 +2960,8 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="56"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
@@ -2969,23 +2969,23 @@
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="56"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="54"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="72"/>
+      <c r="AC31" s="70"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="20"/>
-      <c r="AF31" s="64">
-        <f>E31-AD31-AE31</f>
+      <c r="AF31" s="62">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
     </row>
     <row r="32" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
@@ -3003,8 +3003,8 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="54"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
@@ -3012,23 +3012,23 @@
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="56"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="54"/>
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
-      <c r="AC32" s="72"/>
+      <c r="AC32" s="70"/>
       <c r="AD32" s="23"/>
       <c r="AE32" s="20"/>
-      <c r="AF32" s="64">
-        <f>E32-AD32-AE32</f>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
+      <c r="AF32" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
     </row>
     <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
@@ -3048,8 +3048,8 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="56"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="54"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
@@ -3057,23 +3057,23 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="56"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="54"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
-      <c r="AC33" s="72"/>
+      <c r="AC33" s="70"/>
       <c r="AD33" s="23"/>
       <c r="AE33" s="20"/>
-      <c r="AF33" s="64">
-        <f>E33-AD33-AE33</f>
+      <c r="AF33" s="62">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
     </row>
     <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -3093,8 +3093,8 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="56"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="54"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
@@ -3102,23 +3102,23 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="56"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="54"/>
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
-      <c r="AC34" s="72"/>
+      <c r="AC34" s="70"/>
       <c r="AD34" s="23"/>
       <c r="AE34" s="20"/>
-      <c r="AF34" s="64">
-        <f>E34-AD34-AE34</f>
+      <c r="AF34" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
     </row>
     <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -3138,8 +3138,8 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="54"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -3147,23 +3147,23 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="56"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="54"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
-      <c r="AC35" s="72"/>
+      <c r="AC35" s="70"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="20"/>
-      <c r="AF35" s="64">
-        <f>E35-AD35-AE35</f>
+      <c r="AF35" s="62">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="68"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
     </row>
     <row r="36" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -3181,8 +3181,8 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
@@ -3190,23 +3190,23 @@
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="56"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="54"/>
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
-      <c r="AC36" s="72"/>
+      <c r="AC36" s="70"/>
       <c r="AD36" s="23"/>
       <c r="AE36" s="20"/>
-      <c r="AF36" s="64">
-        <f>E36-AD36-AE36</f>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="68"/>
+      <c r="AF36" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
     </row>
     <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
@@ -3230,8 +3230,8 @@
         <f>190/60</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="N37" s="59"/>
-      <c r="O37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
@@ -3239,20 +3239,20 @@
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="56"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="54"/>
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
-      <c r="AC37" s="72"/>
+      <c r="AC37" s="70"/>
       <c r="AD37" s="23"/>
       <c r="AE37" s="20"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
-      <c r="AJ37" s="68"/>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
     </row>
     <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -3265,7 +3265,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G38" s="25"/>
@@ -3275,8 +3275,8 @@
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="54"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -3284,26 +3284,26 @@
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="56"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="54"/>
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
-      <c r="AC38" s="72"/>
+      <c r="AC38" s="70"/>
       <c r="AD38" s="23">
         <f>SUM(G38:V38)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="20"/>
-      <c r="AF38" s="64">
-        <f>E38-AD38-AE38</f>
+      <c r="AF38" s="62">
+        <f t="shared" ref="AF38:AF72" si="3">E38-AD38-AE38</f>
         <v>40</v>
       </c>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
-      <c r="AJ38" s="68"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
     </row>
     <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
@@ -3316,7 +3316,7 @@
         <v>80</v>
       </c>
       <c r="F39" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G39" s="25"/>
@@ -3326,8 +3326,8 @@
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="56"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="54"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
@@ -3335,26 +3335,26 @@
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="56"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="54"/>
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
-      <c r="AC39" s="72"/>
+      <c r="AC39" s="70"/>
       <c r="AD39" s="23">
         <f>SUM(G39:V39)</f>
         <v>0</v>
       </c>
       <c r="AE39" s="20"/>
-      <c r="AF39" s="64">
-        <f>E39-AD39-AE39</f>
+      <c r="AF39" s="62">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="68"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
     </row>
     <row r="40" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
@@ -3367,7 +3367,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="G40" s="25"/>
@@ -3377,8 +3377,8 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="56"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="54"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
@@ -3386,26 +3386,26 @@
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="56"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="54"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
-      <c r="AC40" s="72"/>
+      <c r="AC40" s="70"/>
       <c r="AD40" s="23">
         <f>SUM(G40:V40)</f>
         <v>0</v>
       </c>
       <c r="AE40" s="20"/>
-      <c r="AF40" s="64">
-        <f>E40-AD40-AE40</f>
+      <c r="AF40" s="62">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="68"/>
-      <c r="AJ40" s="68"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
     </row>
     <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
@@ -3423,8 +3423,8 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="56"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="54"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
@@ -3432,26 +3432,26 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="56"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="54"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
-      <c r="AC41" s="72"/>
+      <c r="AC41" s="70"/>
       <c r="AD41" s="23">
         <f>SUM(G41:V41)</f>
         <v>0</v>
       </c>
       <c r="AE41" s="20"/>
-      <c r="AF41" s="64">
-        <f>E41-AD41-AE41</f>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="68"/>
-      <c r="AI41" s="68"/>
-      <c r="AJ41" s="68"/>
+      <c r="AF41" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
     </row>
     <row r="42" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
@@ -3469,8 +3469,8 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="56"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="54"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
@@ -3478,23 +3478,23 @@
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="56"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="54"/>
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
-      <c r="AC42" s="72"/>
+      <c r="AC42" s="70"/>
       <c r="AD42" s="23"/>
       <c r="AE42" s="20"/>
-      <c r="AF42" s="64">
-        <f>E42-AD42-AE42</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="68"/>
-      <c r="AH42" s="68"/>
-      <c r="AI42" s="68"/>
-      <c r="AJ42" s="68"/>
+      <c r="AF42" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
     </row>
     <row r="43" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
@@ -3514,8 +3514,8 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="56"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="54"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
@@ -3523,26 +3523,26 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="56"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="54"/>
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
-      <c r="AC43" s="72"/>
+      <c r="AC43" s="70"/>
       <c r="AD43" s="23">
         <f>SUM(G43:V43)</f>
         <v>0</v>
       </c>
       <c r="AE43" s="20"/>
-      <c r="AF43" s="64">
-        <f>E43-AD43-AE43</f>
+      <c r="AF43" s="62">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="68"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="68"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
     </row>
     <row r="44" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
@@ -3560,8 +3560,8 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="56"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="54"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
@@ -3569,23 +3569,23 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="56"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="54"/>
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
-      <c r="AC44" s="72"/>
+      <c r="AC44" s="70"/>
       <c r="AD44" s="23"/>
       <c r="AE44" s="20"/>
-      <c r="AF44" s="64">
-        <f>E44-AD44-AE44</f>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="68"/>
-      <c r="AI44" s="68"/>
-      <c r="AJ44" s="68"/>
+      <c r="AF44" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
     </row>
     <row r="45" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
@@ -3605,8 +3605,8 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="56"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="54"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
@@ -3614,23 +3614,23 @@
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="56"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="54"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
-      <c r="AC45" s="72"/>
+      <c r="AC45" s="70"/>
       <c r="AD45" s="23"/>
       <c r="AE45" s="20"/>
-      <c r="AF45" s="64">
-        <f>E45-AD45-AE45</f>
+      <c r="AF45" s="62">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="68"/>
-      <c r="AJ45" s="68"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
     </row>
     <row r="46" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
@@ -3650,8 +3650,8 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="56"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="54"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
@@ -3659,23 +3659,23 @@
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="56"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="54"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
-      <c r="AC46" s="72"/>
+      <c r="AC46" s="70"/>
       <c r="AD46" s="23"/>
       <c r="AE46" s="20"/>
-      <c r="AF46" s="64">
-        <f>E46-AD46-AE46</f>
+      <c r="AF46" s="62">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="AG46" s="68"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="68"/>
-      <c r="AJ46" s="68"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
     </row>
     <row r="47" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
@@ -3695,8 +3695,8 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="56"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="54"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
@@ -3704,23 +3704,23 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="56"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="54"/>
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
-      <c r="AC47" s="72"/>
+      <c r="AC47" s="70"/>
       <c r="AD47" s="23"/>
       <c r="AE47" s="20"/>
-      <c r="AF47" s="64">
-        <f>E47-AD47-AE47</f>
+      <c r="AF47" s="62">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="68"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
     </row>
     <row r="48" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
@@ -3738,8 +3738,8 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="56"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="54"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
@@ -3747,26 +3747,26 @@
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="56"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="54"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
-      <c r="AC48" s="72"/>
+      <c r="AC48" s="70"/>
       <c r="AD48" s="23">
         <f>SUM(G48:V48)</f>
         <v>0</v>
       </c>
       <c r="AE48" s="20"/>
-      <c r="AF48" s="64">
-        <f>E48-AD48-AE48</f>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="68"/>
+      <c r="AF48" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
     </row>
     <row r="49" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -3786,8 +3786,8 @@
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="56"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="54"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
@@ -3795,23 +3795,23 @@
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="56"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="54"/>
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
-      <c r="AC49" s="72"/>
+      <c r="AC49" s="70"/>
       <c r="AD49" s="23"/>
       <c r="AE49" s="20"/>
-      <c r="AF49" s="64">
-        <f>E49-AD49-AE49</f>
+      <c r="AF49" s="62">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="AG49" s="68"/>
-      <c r="AH49" s="68"/>
-      <c r="AI49" s="68"/>
-      <c r="AJ49" s="68"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
     </row>
     <row r="50" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
@@ -3829,8 +3829,8 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="56"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="54"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
@@ -3838,26 +3838,26 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="56"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="54"/>
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
-      <c r="AC50" s="72"/>
+      <c r="AC50" s="70"/>
       <c r="AD50" s="23">
         <f>SUM(G50:V50)</f>
         <v>0</v>
       </c>
       <c r="AE50" s="20"/>
-      <c r="AF50" s="64">
-        <f>E50-AD50-AE50</f>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="68"/>
-      <c r="AH50" s="68"/>
-      <c r="AI50" s="68"/>
-      <c r="AJ50" s="68"/>
+      <c r="AF50" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
     </row>
     <row r="51" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -3875,8 +3875,8 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="56"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="54"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
@@ -3884,23 +3884,23 @@
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="56"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="54"/>
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
       <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
-      <c r="AC51" s="72"/>
+      <c r="AC51" s="70"/>
       <c r="AD51" s="23"/>
       <c r="AE51" s="20"/>
-      <c r="AF51" s="64">
-        <f>E51-AD51-AE51</f>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="68"/>
-      <c r="AH51" s="68"/>
-      <c r="AI51" s="68"/>
-      <c r="AJ51" s="68"/>
+      <c r="AF51" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
     </row>
     <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -3920,8 +3920,8 @@
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="56"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="54"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
@@ -3929,23 +3929,23 @@
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="56"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="54"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
-      <c r="AC52" s="72"/>
+      <c r="AC52" s="70"/>
       <c r="AD52" s="23"/>
       <c r="AE52" s="20"/>
-      <c r="AF52" s="64">
-        <f>E52-AD52-AE52</f>
+      <c r="AF52" s="62">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AG52" s="68"/>
-      <c r="AH52" s="68"/>
-      <c r="AI52" s="68"/>
-      <c r="AJ52" s="68"/>
+      <c r="AG52" s="66"/>
+      <c r="AH52" s="66"/>
+      <c r="AI52" s="66"/>
+      <c r="AJ52" s="66"/>
     </row>
     <row r="53" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -3966,8 +3966,8 @@
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="56"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="54"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
@@ -3975,23 +3975,23 @@
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="56"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="54"/>
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
-      <c r="AC53" s="72"/>
+      <c r="AC53" s="70"/>
       <c r="AD53" s="23"/>
       <c r="AE53" s="20"/>
-      <c r="AF53" s="64">
-        <f>E53-AD53-AE53</f>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="68"/>
-      <c r="AH53" s="68"/>
-      <c r="AI53" s="68"/>
-      <c r="AJ53" s="68"/>
+      <c r="AF53" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="66"/>
+      <c r="AH53" s="66"/>
+      <c r="AI53" s="66"/>
+      <c r="AJ53" s="66"/>
     </row>
     <row r="54" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -4009,8 +4009,8 @@
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="56"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="54"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
@@ -4018,23 +4018,23 @@
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="56"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="54"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
-      <c r="AC54" s="72"/>
+      <c r="AC54" s="70"/>
       <c r="AD54" s="23"/>
       <c r="AE54" s="20"/>
-      <c r="AF54" s="64">
-        <f>E54-AD54-AE54</f>
-        <v>0</v>
-      </c>
-      <c r="AG54" s="68"/>
-      <c r="AH54" s="68"/>
-      <c r="AI54" s="68"/>
-      <c r="AJ54" s="68"/>
+      <c r="AF54" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="66"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="66"/>
+      <c r="AJ54" s="66"/>
     </row>
     <row r="55" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -4054,8 +4054,8 @@
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="56"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="54"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
@@ -4063,23 +4063,23 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="56"/>
+      <c r="W55" s="57"/>
+      <c r="X55" s="54"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="72"/>
+      <c r="AC55" s="70"/>
       <c r="AD55" s="23"/>
       <c r="AE55" s="20"/>
-      <c r="AF55" s="64">
-        <f>E55-AD55-AE55</f>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="68"/>
-      <c r="AH55" s="68"/>
-      <c r="AI55" s="68"/>
-      <c r="AJ55" s="68"/>
+      <c r="AF55" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="66"/>
+      <c r="AH55" s="66"/>
+      <c r="AI55" s="66"/>
+      <c r="AJ55" s="66"/>
     </row>
     <row r="56" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -4099,8 +4099,8 @@
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="56"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="54"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
@@ -4108,23 +4108,23 @@
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="56"/>
+      <c r="W56" s="57"/>
+      <c r="X56" s="54"/>
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
-      <c r="AC56" s="72"/>
+      <c r="AC56" s="70"/>
       <c r="AD56" s="23"/>
       <c r="AE56" s="20"/>
-      <c r="AF56" s="64">
-        <f>E56-AD56-AE56</f>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="68"/>
-      <c r="AH56" s="68"/>
-      <c r="AI56" s="68"/>
-      <c r="AJ56" s="68"/>
+      <c r="AF56" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="66"/>
+      <c r="AH56" s="66"/>
+      <c r="AI56" s="66"/>
+      <c r="AJ56" s="66"/>
     </row>
     <row r="57" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -4144,8 +4144,8 @@
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="56"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="54"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
@@ -4153,23 +4153,23 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="56"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="54"/>
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
-      <c r="AC57" s="72"/>
+      <c r="AC57" s="70"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="20"/>
-      <c r="AF57" s="64">
-        <f>E57-AD57-AE57</f>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="68"/>
-      <c r="AH57" s="68"/>
-      <c r="AI57" s="68"/>
-      <c r="AJ57" s="68"/>
+      <c r="AF57" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="66"/>
+      <c r="AH57" s="66"/>
+      <c r="AI57" s="66"/>
+      <c r="AJ57" s="66"/>
     </row>
     <row r="58" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
@@ -4187,8 +4187,8 @@
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="56"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="54"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
@@ -4196,26 +4196,26 @@
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="56"/>
+      <c r="W58" s="57"/>
+      <c r="X58" s="54"/>
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
-      <c r="AC58" s="72"/>
+      <c r="AC58" s="70"/>
       <c r="AD58" s="23">
         <f>SUM(G58:V58)</f>
         <v>0</v>
       </c>
       <c r="AE58" s="20"/>
-      <c r="AF58" s="64">
-        <f>E58-AD58-AE58</f>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="68"/>
-      <c r="AJ58" s="68"/>
+      <c r="AF58" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="66"/>
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="66"/>
+      <c r="AJ58" s="66"/>
     </row>
     <row r="59" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -4233,8 +4233,8 @@
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="56"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="54"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
       <c r="R59" s="21"/>
@@ -4242,23 +4242,23 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="56"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="54"/>
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
-      <c r="AC59" s="72"/>
+      <c r="AC59" s="70"/>
       <c r="AD59" s="23"/>
       <c r="AE59" s="20"/>
-      <c r="AF59" s="64">
-        <f>E59-AD59-AE59</f>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="68"/>
-      <c r="AH59" s="68"/>
-      <c r="AI59" s="68"/>
-      <c r="AJ59" s="68"/>
+      <c r="AF59" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="66"/>
+      <c r="AH59" s="66"/>
+      <c r="AI59" s="66"/>
+      <c r="AJ59" s="66"/>
     </row>
     <row r="60" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
@@ -4274,8 +4274,8 @@
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="56"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="54"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
@@ -4283,23 +4283,23 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="56"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="54"/>
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
-      <c r="AC60" s="72"/>
+      <c r="AC60" s="70"/>
       <c r="AD60" s="23"/>
       <c r="AE60" s="20"/>
-      <c r="AF60" s="64">
-        <f>E60-AD60-AE60</f>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="68"/>
-      <c r="AH60" s="68"/>
-      <c r="AI60" s="68"/>
-      <c r="AJ60" s="68"/>
+      <c r="AF60" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="66"/>
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="66"/>
+      <c r="AJ60" s="66"/>
     </row>
     <row r="61" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
@@ -4315,8 +4315,8 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="56"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="54"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -4324,23 +4324,23 @@
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="56"/>
+      <c r="W61" s="57"/>
+      <c r="X61" s="54"/>
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
-      <c r="AC61" s="72"/>
+      <c r="AC61" s="70"/>
       <c r="AD61" s="23"/>
       <c r="AE61" s="20"/>
-      <c r="AF61" s="64">
-        <f>E61-AD61-AE61</f>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="68"/>
-      <c r="AH61" s="68"/>
-      <c r="AI61" s="68"/>
-      <c r="AJ61" s="68"/>
+      <c r="AF61" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="66"/>
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="66"/>
+      <c r="AJ61" s="66"/>
     </row>
     <row r="62" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
@@ -4358,8 +4358,8 @@
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="56"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="54"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -4367,26 +4367,26 @@
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="56"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="54"/>
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
-      <c r="AC62" s="72"/>
+      <c r="AC62" s="70"/>
       <c r="AD62" s="23">
-        <f>SUM(G62:V62)</f>
+        <f t="shared" ref="AD62:AD72" si="4">SUM(G62:V62)</f>
         <v>0</v>
       </c>
       <c r="AE62" s="20"/>
-      <c r="AF62" s="64">
-        <f>E62-AD62-AE62</f>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="68"/>
-      <c r="AH62" s="68"/>
-      <c r="AI62" s="68"/>
-      <c r="AJ62" s="68"/>
+      <c r="AF62" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="66"/>
+      <c r="AH62" s="66"/>
+      <c r="AI62" s="66"/>
+      <c r="AJ62" s="66"/>
     </row>
     <row r="63" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="25"/>
@@ -4409,8 +4409,8 @@
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="56"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="54"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
@@ -4418,26 +4418,26 @@
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="56"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="54"/>
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
-      <c r="AC63" s="72"/>
+      <c r="AC63" s="70"/>
       <c r="AD63" s="23">
-        <f>SUM(G63:V63)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE63" s="20"/>
-      <c r="AF63" s="64">
-        <f>E63-AD63-AE63</f>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="68"/>
-      <c r="AH63" s="68"/>
-      <c r="AI63" s="68"/>
-      <c r="AJ63" s="68"/>
+      <c r="AF63" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="66"/>
+      <c r="AH63" s="66"/>
+      <c r="AI63" s="66"/>
+      <c r="AJ63" s="66"/>
     </row>
     <row r="64" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G64" s="25"/>
@@ -4460,8 +4460,8 @@
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="56"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="54"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
       <c r="R64" s="21"/>
@@ -4469,26 +4469,26 @@
       <c r="T64" s="21"/>
       <c r="U64" s="21"/>
       <c r="V64" s="21"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="56"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="54"/>
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
       <c r="AA64" s="21"/>
       <c r="AB64" s="21"/>
-      <c r="AC64" s="72"/>
+      <c r="AC64" s="70"/>
       <c r="AD64" s="23">
-        <f>SUM(G64:V64)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE64" s="20"/>
-      <c r="AF64" s="64">
-        <f>E64-AD64-AE64</f>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="68"/>
-      <c r="AH64" s="68"/>
-      <c r="AI64" s="68"/>
-      <c r="AJ64" s="68"/>
+      <c r="AF64" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="66"/>
+      <c r="AI64" s="66"/>
+      <c r="AJ64" s="66"/>
     </row>
     <row r="65" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="25"/>
@@ -4511,8 +4511,8 @@
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="56"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="54"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
@@ -4520,26 +4520,26 @@
       <c r="T65" s="21"/>
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="56"/>
+      <c r="W65" s="57"/>
+      <c r="X65" s="54"/>
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
       <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
-      <c r="AC65" s="72"/>
+      <c r="AC65" s="70"/>
       <c r="AD65" s="23">
-        <f>SUM(G65:V65)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE65" s="20"/>
-      <c r="AF65" s="64">
-        <f>E65-AD65-AE65</f>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="68"/>
-      <c r="AH65" s="68"/>
-      <c r="AI65" s="68"/>
-      <c r="AJ65" s="68"/>
+      <c r="AF65" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="66"/>
+      <c r="AI65" s="66"/>
+      <c r="AJ65" s="66"/>
     </row>
     <row r="66" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
@@ -4548,7 +4548,7 @@
       <c r="D66" s="33"/>
       <c r="E66" s="27"/>
       <c r="F66" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66" s="25"/>
@@ -4558,8 +4558,8 @@
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="56"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="54"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
@@ -4567,26 +4567,26 @@
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="56"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="54"/>
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
-      <c r="AC66" s="72"/>
+      <c r="AC66" s="70"/>
       <c r="AD66" s="23">
-        <f>SUM(G66:V66)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE66" s="20"/>
-      <c r="AF66" s="64">
-        <f>E66-AD66-AE66</f>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="68"/>
-      <c r="AH66" s="68"/>
-      <c r="AI66" s="68"/>
-      <c r="AJ66" s="68"/>
+      <c r="AF66" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="66"/>
+      <c r="AI66" s="66"/>
+      <c r="AJ66" s="66"/>
     </row>
     <row r="67" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
@@ -4597,7 +4597,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="27"/>
       <c r="F67" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G67" s="25"/>
@@ -4607,8 +4607,8 @@
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="56"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="54"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
@@ -4616,26 +4616,26 @@
       <c r="T67" s="21"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="56"/>
+      <c r="W67" s="57"/>
+      <c r="X67" s="54"/>
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
-      <c r="AC67" s="72"/>
+      <c r="AC67" s="70"/>
       <c r="AD67" s="23">
-        <f>SUM(G67:V67)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE67" s="20"/>
-      <c r="AF67" s="64">
-        <f>E67-AD67-AE67</f>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="68"/>
-      <c r="AH67" s="68"/>
-      <c r="AI67" s="68"/>
-      <c r="AJ67" s="68"/>
+      <c r="AF67" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="66"/>
+      <c r="AJ67" s="66"/>
     </row>
     <row r="68" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
@@ -4646,7 +4646,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="27"/>
       <c r="F68" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G68" s="25"/>
@@ -4656,8 +4656,8 @@
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="56"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="54"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
@@ -4665,26 +4665,26 @@
       <c r="T68" s="21"/>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="56"/>
+      <c r="W68" s="57"/>
+      <c r="X68" s="54"/>
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21"/>
-      <c r="AC68" s="72"/>
+      <c r="AC68" s="70"/>
       <c r="AD68" s="23">
-        <f>SUM(G68:V68)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE68" s="20"/>
-      <c r="AF68" s="64">
-        <f>E68-AD68-AE68</f>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="68"/>
-      <c r="AH68" s="68"/>
-      <c r="AI68" s="68"/>
-      <c r="AJ68" s="68"/>
+      <c r="AF68" s="62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="66"/>
+      <c r="AH68" s="66"/>
+      <c r="AI68" s="66"/>
+      <c r="AJ68" s="66"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
@@ -4697,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G69" s="25">
@@ -4721,8 +4721,8 @@
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N69" s="59"/>
-      <c r="O69" s="56"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="54"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="21"/>
       <c r="R69" s="21"/>
@@ -4730,26 +4730,26 @@
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="56"/>
+      <c r="W69" s="57"/>
+      <c r="X69" s="54"/>
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
       <c r="AA69" s="21"/>
       <c r="AB69" s="21"/>
-      <c r="AC69" s="72"/>
+      <c r="AC69" s="70"/>
       <c r="AD69" s="23">
-        <f>SUM(G69:V69)</f>
+        <f t="shared" si="4"/>
         <v>4.4166666666666661</v>
       </c>
       <c r="AE69" s="20"/>
-      <c r="AF69" s="64">
-        <f>E69-AD69-AE69</f>
+      <c r="AF69" s="62">
+        <f t="shared" si="3"/>
         <v>-0.41666666666666607</v>
       </c>
-      <c r="AG69" s="68"/>
-      <c r="AH69" s="68"/>
-      <c r="AI69" s="68"/>
-      <c r="AJ69" s="68"/>
+      <c r="AG69" s="66"/>
+      <c r="AH69" s="66"/>
+      <c r="AI69" s="66"/>
+      <c r="AJ69" s="66"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="G70" s="25"/>
@@ -4772,8 +4772,8 @@
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="56"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="54"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
@@ -4781,26 +4781,26 @@
       <c r="T70" s="21"/>
       <c r="U70" s="21"/>
       <c r="V70" s="21"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="56"/>
+      <c r="W70" s="57"/>
+      <c r="X70" s="54"/>
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
-      <c r="AC70" s="72"/>
+      <c r="AC70" s="70"/>
       <c r="AD70" s="23">
-        <f>SUM(G70:V70)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE70" s="20"/>
-      <c r="AF70" s="64">
-        <f>E70-AD70-AE70</f>
+      <c r="AF70" s="62">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AG70" s="68"/>
-      <c r="AH70" s="68"/>
-      <c r="AI70" s="68"/>
-      <c r="AJ70" s="68"/>
+      <c r="AG70" s="66"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
+      <c r="AJ70" s="66"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
@@ -4813,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="36">
-        <f t="shared" ref="F71:F72" si="2">E71/8</f>
+        <f t="shared" ref="F71:F72" si="5">E71/8</f>
         <v>1.75</v>
       </c>
       <c r="G71" s="25">
@@ -4837,9 +4837,12 @@
         <f>20/60</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M71" s="21"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="56"/>
+      <c r="M71" s="21">
+        <f>25/60</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N71" s="57"/>
+      <c r="O71" s="54"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -4847,26 +4850,26 @@
       <c r="T71" s="21"/>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="56"/>
+      <c r="W71" s="57"/>
+      <c r="X71" s="54"/>
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
       <c r="AA71" s="21"/>
       <c r="AB71" s="21"/>
-      <c r="AC71" s="72"/>
+      <c r="AC71" s="70"/>
       <c r="AD71" s="23">
-        <f>SUM(G71:V71)</f>
-        <v>2.833333333333333</v>
+        <f t="shared" si="4"/>
+        <v>3.2499999999999996</v>
       </c>
       <c r="AE71" s="20"/>
-      <c r="AF71" s="64">
-        <f>E71-AD71-AE71</f>
-        <v>11.166666666666668</v>
-      </c>
-      <c r="AG71" s="68"/>
-      <c r="AH71" s="68"/>
-      <c r="AI71" s="68"/>
-      <c r="AJ71" s="68"/>
+      <c r="AF71" s="62">
+        <f t="shared" si="3"/>
+        <v>10.75</v>
+      </c>
+      <c r="AG71" s="66"/>
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="66"/>
+      <c r="AJ71" s="66"/>
     </row>
     <row r="72" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
@@ -4879,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="F72" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="G72" s="43"/>
@@ -4894,8 +4897,8 @@
       <c r="K72" s="44"/>
       <c r="L72" s="44"/>
       <c r="M72" s="44"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="57"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="55"/>
       <c r="P72" s="44"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="44"/>
@@ -4903,26 +4906,26 @@
       <c r="T72" s="44"/>
       <c r="U72" s="44"/>
       <c r="V72" s="44"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="57"/>
+      <c r="W72" s="58"/>
+      <c r="X72" s="55"/>
       <c r="Y72" s="44"/>
       <c r="Z72" s="44"/>
       <c r="AA72" s="44"/>
       <c r="AB72" s="44"/>
-      <c r="AC72" s="73"/>
+      <c r="AC72" s="71"/>
       <c r="AD72" s="45">
-        <f>SUM(G72:V72)</f>
+        <f t="shared" si="4"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="AE72" s="46"/>
-      <c r="AF72" s="65">
-        <f>E72-AD72-AE72</f>
+      <c r="AF72" s="63">
+        <f t="shared" si="3"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AG72" s="68"/>
-      <c r="AH72" s="68"/>
-      <c r="AI72" s="68"/>
-      <c r="AJ72" s="68"/>
+      <c r="AG72" s="66"/>
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="66"/>
+      <c r="AJ72" s="66"/>
     </row>
     <row r="73" spans="1:36" s="1" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
@@ -4932,136 +4935,136 @@
       <c r="C73" s="47"/>
       <c r="D73" s="48"/>
       <c r="E73" s="49">
-        <f t="shared" ref="E73:AB73" si="3">SUM(E3:E72)</f>
+        <f t="shared" ref="E73:U73" si="6">SUM(E3:E72)</f>
         <v>412</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.083333333333333</v>
       </c>
       <c r="H73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.25</v>
       </c>
       <c r="I73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.166666666666666</v>
       </c>
       <c r="J73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.666666666666667</v>
       </c>
       <c r="K73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.5833333333333339</v>
       </c>
       <c r="L73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15.833333333333336</v>
       </c>
       <c r="M73" s="51">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="N73" s="61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="N73" s="59">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O73" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U73" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V73" s="51">
-        <f t="shared" ref="V73:AD73" si="4">SUM(V3:V72)</f>
-        <v>0</v>
-      </c>
-      <c r="W73" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="V73:AC73" si="7">SUM(V3:V72)</f>
+        <v>0</v>
+      </c>
+      <c r="W73" s="59">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X73" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y73" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z73" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA73" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB73" s="51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC73" s="74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="72">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD73" s="52">
         <f>SUM(AD3:AD72)</f>
-        <v>31.25</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="AE73" s="51">
         <f>SUM(AE3:AE72)</f>
         <v>0</v>
       </c>
-      <c r="AF73" s="66">
+      <c r="AF73" s="64">
         <f>SUM(AF3:AF72)</f>
-        <v>380.74999999999994</v>
-      </c>
-      <c r="AG73" s="69"/>
-      <c r="AH73" s="69"/>
-      <c r="AI73" s="69"/>
-      <c r="AJ73" s="69"/>
+        <v>380.33333333333326</v>
+      </c>
+      <c r="AG73" s="67"/>
+      <c r="AH73" s="67"/>
+      <c r="AI73" s="67"/>
+      <c r="AJ73" s="67"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG74" s="70"/>
-      <c r="AH74" s="70"/>
-      <c r="AI74" s="70"/>
-      <c r="AJ74" s="70"/>
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="68"/>
+      <c r="AI74" s="68"/>
+      <c r="AJ74" s="68"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG75" s="70"/>
-      <c r="AH75" s="70"/>
-      <c r="AI75" s="70"/>
-      <c r="AJ75" s="70"/>
+      <c r="AG75" s="68"/>
+      <c r="AH75" s="68"/>
+      <c r="AI75" s="68"/>
+      <c r="AJ75" s="68"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG76" s="70"/>
-      <c r="AH76" s="70"/>
-      <c r="AI76" s="70"/>
-      <c r="AJ76" s="70"/>
+      <c r="AG76" s="68"/>
+      <c r="AH76" s="68"/>
+      <c r="AI76" s="68"/>
+      <c r="AJ76" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5138,20 +5141,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5172,18 +5175,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\HEIG-VD\Travail de bachelor\AutonomousRcCar\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1CA6036-B215-4A1F-949D-26DA2CEAD8AC}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1898B41-2CFB-408A-AF61-AC265E1878D9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tâches!$A$2:$AB$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tâches!$A$2:$AB$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Affiches / Préparation présentations externe</t>
   </si>
   <si>
-    <t>Configuration de la caméra</t>
-  </si>
-  <si>
     <t>s.17</t>
   </si>
   <si>
@@ -348,6 +345,18 @@
   </si>
   <si>
     <t>s.23</t>
+  </si>
+  <si>
+    <t>Apprendre la détection d'objet par deep learning</t>
+  </si>
+  <si>
+    <t>Instalation et prise en main de software (tensorFlow)</t>
+  </si>
+  <si>
+    <t>Configuration et installation de la caméra</t>
+  </si>
+  <si>
+    <t>Lister et choisir les méthodes d'alimentation</t>
   </si>
 </sst>
 </file>
@@ -902,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -996,10 +1005,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1030,7 +1035,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,11 +1401,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ76"/>
+  <dimension ref="A1:AJ79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1490,19 +1494,19 @@
       </c>
       <c r="AD1" s="19"/>
       <c r="AE1" s="18"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="34" t="s">
         <v>32</v>
       </c>
@@ -1530,7 +1534,7 @@
       <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="54" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="22" t="s">
@@ -1557,26 +1561,26 @@
       <c r="V2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="Y2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="66" t="s">
         <v>76</v>
-      </c>
-      <c r="AC2" s="69" t="s">
-        <v>77</v>
       </c>
       <c r="AD2" s="22" t="s">
         <v>1</v>
@@ -1584,13 +1588,13 @@
       <c r="AE2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
     </row>
     <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1608,8 +1612,8 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1617,23 +1621,26 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="54"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="52"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
       <c r="AB3" s="21"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="23"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="23">
+        <f t="shared" ref="AD3:AD9" si="0">SUM(G3:V3)</f>
+        <v>0</v>
+      </c>
       <c r="AE3" s="20"/>
-      <c r="AF3" s="62">
-        <f t="shared" ref="AF3:AF36" si="0">E3-AD3-AE3</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
+      <c r="AF3" s="60">
+        <f t="shared" ref="AF3:AF9" si="1">E3-AD3-AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
     </row>
     <row r="4" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -1651,8 +1658,8 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="52"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1660,23 +1667,26 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="54"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="52"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="23"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AE4" s="20"/>
-      <c r="AF4" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
+      <c r="AF4" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
     </row>
     <row r="5" spans="1:36" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -1699,8 +1709,8 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="52"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1708,23 +1718,26 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="54"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="52"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="23"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="23">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
       <c r="AE5" s="20"/>
-      <c r="AF5" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
+      <c r="AF5" s="60">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
     </row>
     <row r="6" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -1747,8 +1760,8 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1756,30 +1769,33 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="54"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="52"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="23"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="23">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="AE6" s="20"/>
-      <c r="AF6" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
+      <c r="AF6" s="60">
+        <f t="shared" si="1"/>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
     </row>
     <row r="7" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="29" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E7" s="27">
         <v>4</v>
@@ -1787,15 +1803,15 @@
       <c r="F7" s="36"/>
       <c r="G7" s="25"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="21">
-        <v>5.5</v>
-      </c>
+      <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="54"/>
+      <c r="M7" s="21">
+        <v>3</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="52"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1803,42 +1819,43 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="54"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="52"/>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
-      <c r="AC7" s="70"/>
+      <c r="AC7" s="67"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="20"/>
-      <c r="AF7" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="27"/>
+      <c r="D8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="27">
+        <v>4</v>
+      </c>
       <c r="F8" s="36"/>
       <c r="G8" s="25"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <v>5.5</v>
+      </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1846,50 +1863,45 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="54"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="52"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="23"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="23">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
       <c r="AE8" s="20"/>
-      <c r="AF8" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
+      <c r="AF8" s="60">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
     </row>
     <row r="9" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="27">
-        <v>4</v>
-      </c>
-      <c r="F9" s="36">
-        <f t="shared" ref="F9:F70" si="1">E9/8</f>
-        <v>0.5</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="25"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21">
-        <f>135/60</f>
-        <v>2.25</v>
-      </c>
+      <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1897,47 +1909,53 @@
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="54"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="52"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
-      <c r="AC9" s="70"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="23">
-        <f>SUM(G9:V9)</f>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AE9" s="20"/>
-      <c r="AF9" s="62">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
+      <c r="AF9" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
     </row>
     <row r="10" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" ref="F10:F73" si="2">E10/8</f>
+        <v>0.5</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>135/60</f>
+        <v>2.25</v>
+      </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1945,38 +1963,38 @@
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="54"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="52"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="23"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="23">
+        <f>SUM(G10:V10)</f>
+        <v>2.25</v>
+      </c>
       <c r="AE10" s="20"/>
-      <c r="AF10" s="62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
+      <c r="AF10" s="60">
+        <f t="shared" ref="AF10" si="3">E10-AD10-AE10</f>
+        <v>1.75</v>
+      </c>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
     </row>
     <row r="11" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="27">
-        <v>4</v>
-      </c>
-      <c r="F11" s="36">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F11" s="36"/>
       <c r="G11" s="25"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1984,8 +2002,8 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="54"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1993,40 +2011,40 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="54"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="52"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
-      <c r="AC11" s="70"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="23">
-        <f>SUM(G11:V11)</f>
+        <f t="shared" ref="AD11:AD74" si="4">SUM(G11:V11)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="20"/>
-      <c r="AF11" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
+      <c r="AF11" s="60">
+        <f t="shared" ref="AF11:AF74" si="5">E11-AD11-AE11</f>
+        <v>1</v>
+      </c>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
     </row>
     <row r="12" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="29" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E12" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="21"/>
@@ -2035,8 +2053,8 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -2044,39 +2062,39 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="54"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="52"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
-      <c r="AC12" s="70"/>
+      <c r="AC12" s="67"/>
       <c r="AD12" s="23">
-        <f>SUM(G12:V12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE12" s="20"/>
-      <c r="AF12" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
+      <c r="AF12" s="60">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
     </row>
     <row r="13" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="27">
         <v>8</v>
       </c>
       <c r="F13" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G13" s="25"/>
@@ -2086,8 +2104,11 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="54"/>
+      <c r="N13" s="55">
+        <f>163/60+0.5+5</f>
+        <v>8.2166666666666668</v>
+      </c>
+      <c r="O13" s="52"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -2095,38 +2116,40 @@
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="54"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="52"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
-      <c r="AC13" s="70"/>
+      <c r="AC13" s="67"/>
       <c r="AD13" s="23">
-        <f>SUM(G13:V13)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8.2166666666666668</v>
       </c>
       <c r="AE13" s="20"/>
-      <c r="AF13" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
+      <c r="AF13" s="60">
+        <f t="shared" si="5"/>
+        <v>-0.21666666666666679</v>
+      </c>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
     </row>
     <row r="14" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="27">
+        <v>8</v>
+      </c>
       <c r="F14" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="21"/>
@@ -2135,8 +2158,11 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="54"/>
+      <c r="N14" s="55">
+        <f>170/60+3</f>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="O14" s="52"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
@@ -2144,50 +2170,48 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="54"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="52"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="23"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="23">
+        <f t="shared" si="4"/>
+        <v>5.8333333333333339</v>
+      </c>
       <c r="AE14" s="20"/>
-      <c r="AF14" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
+      <c r="AF14" s="60">
+        <f t="shared" si="5"/>
+        <v>2.1666666666666661</v>
+      </c>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
     </row>
     <row r="15" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="27">
-        <v>2</v>
-      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="36">
-        <f>E15/8</f>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="21">
-        <f>80/60</f>
-        <v>1.3333333333333333</v>
-      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="52"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
@@ -2195,61 +2219,53 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="54"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="52"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
-      <c r="AC15" s="70"/>
+      <c r="AC15" s="67"/>
       <c r="AD15" s="23">
-        <f>SUM(G15:V15)</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="62">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
+      <c r="AF15" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
     </row>
     <row r="16" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="29" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E16" s="27">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F16" s="36">
-        <f t="shared" ref="F16" si="2">E16/8</f>
-        <v>2</v>
+        <f>E16/8</f>
+        <v>0.25</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="21">
-        <f>25/60</f>
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="I16" s="26"/>
       <c r="J16" s="21">
-        <f>130/60</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="K16" s="21">
-        <f>280/60</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L16" s="21">
-        <v>7</v>
-      </c>
+        <f>80/60</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -2257,45 +2273,61 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="54"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="52"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="70"/>
+      <c r="AC16" s="67"/>
       <c r="AD16" s="23">
-        <f>SUM(G16:V16)</f>
-        <v>14.25</v>
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AE16" s="20"/>
-      <c r="AF16" s="62">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
+      <c r="AF16" s="60">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
     </row>
     <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="36"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="27">
+        <v>16</v>
+      </c>
+      <c r="F17" s="36">
+        <f t="shared" ref="F17" si="6">E17/8</f>
+        <v>2</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="I17" s="21">
+        <f>25/60</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J17" s="21">
+        <f>130/60</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="K17" s="21">
+        <f>280/60</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L17" s="21">
+        <v>7</v>
+      </c>
       <c r="M17" s="21"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
@@ -2303,34 +2335,34 @@
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="54"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="52"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
-      <c r="AC17" s="70"/>
+      <c r="AC17" s="67"/>
       <c r="AD17" s="23">
-        <f>SUM(G17:V17)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>14.25</v>
       </c>
       <c r="AE17" s="20"/>
-      <c r="AF17" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
+      <c r="AF17" s="60">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
     </row>
     <row r="18" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="27"/>
       <c r="F18" s="36"/>
       <c r="G18" s="25"/>
@@ -2340,8 +2372,8 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
@@ -2349,38 +2381,36 @@
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="54"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="52"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="23"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE18" s="20"/>
-      <c r="AF18" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
+      <c r="AF18" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
     </row>
     <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="27">
-        <v>4</v>
-      </c>
-      <c r="F19" s="36">
-        <f>E19/8</f>
-        <v>0.5</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="25"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2388,8 +2418,8 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="54"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
@@ -2397,36 +2427,41 @@
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="54"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="52"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
-      <c r="AC19" s="70"/>
+      <c r="AC19" s="67"/>
       <c r="AD19" s="23">
-        <f>SUM(G19:V19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE19" s="20"/>
-      <c r="AF19" s="62">
-        <f t="shared" si="0"/>
+      <c r="AF19" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="27">
         <v>4</v>
       </c>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <f>E20/8</f>
+        <v>0.5</v>
+      </c>
       <c r="G20" s="25"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -2434,8 +2469,8 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="54"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
@@ -2443,34 +2478,35 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="54"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="52"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="23"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE20" s="20"/>
-      <c r="AF20" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
+      <c r="AF20" s="60">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
     </row>
     <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="36"/>
       <c r="G21" s="25"/>
       <c r="H21" s="21"/>
@@ -2479,8 +2515,8 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="54"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
@@ -2488,33 +2524,36 @@
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="54"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="23"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE21" s="20"/>
-      <c r="AF21" s="62">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
+      <c r="AF21" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
     </row>
     <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="25"/>
@@ -2524,8 +2563,8 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="54"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -2533,33 +2572,36 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="54"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="23"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE22" s="20"/>
-      <c r="AF22" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
+      <c r="AF22" s="60">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
     </row>
     <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="25"/>
@@ -2569,8 +2611,8 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="54"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
@@ -2578,32 +2620,37 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="54"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="52"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="23"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE23" s="20"/>
-      <c r="AF23" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
+      <c r="AF23" s="60">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
     </row>
     <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="27">
+        <v>8</v>
+      </c>
       <c r="F24" s="36"/>
       <c r="G24" s="25"/>
       <c r="H24" s="21"/>
@@ -2612,8 +2659,8 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="54"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
@@ -2621,38 +2668,36 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="54"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="52"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="23"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE24" s="20"/>
-      <c r="AF24" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
+      <c r="AF24" s="60">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
     </row>
     <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="27">
-        <v>16</v>
-      </c>
-      <c r="F25" s="36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="25"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -2660,8 +2705,8 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="54"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -2669,40 +2714,40 @@
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="54"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="52"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
-      <c r="AC25" s="70"/>
+      <c r="AC25" s="67"/>
       <c r="AD25" s="23">
-        <f>SUM(G25:V25)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="20"/>
-      <c r="AF25" s="62">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="66"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
+      <c r="AF25" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
     </row>
     <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="31" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E26" s="27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F26" s="36">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="21"/>
@@ -2711,8 +2756,8 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="54"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
@@ -2720,52 +2765,50 @@
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="54"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="52"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="70"/>
+      <c r="AC26" s="67"/>
       <c r="AD26" s="23">
-        <f>SUM(G26:V26)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE26" s="20"/>
-      <c r="AF26" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
+      <c r="AF26" s="60">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
     </row>
     <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E27" s="27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F27" s="36">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="21">
-        <v>2</v>
-      </c>
+      <c r="L27" s="21"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
@@ -2773,45 +2816,52 @@
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="54"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="52"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
-      <c r="AC27" s="70"/>
+      <c r="AC27" s="67"/>
       <c r="AD27" s="23">
-        <f>SUM(G27:V27)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="60">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+    </row>
+    <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="27">
+        <v>16</v>
+      </c>
+      <c r="F28" s="36">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="62">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-    </row>
-    <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="36"/>
       <c r="G28" s="25"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="21">
+        <v>2</v>
+      </c>
       <c r="M28" s="21"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="54"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
@@ -2819,34 +2869,34 @@
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="54"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="52"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="70"/>
+      <c r="AC28" s="67"/>
       <c r="AD28" s="23">
-        <f>SUM(G28:V28)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AE28" s="20"/>
-      <c r="AF28" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="66"/>
+      <c r="AF28" s="60">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
     </row>
     <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="27"/>
       <c r="F29" s="36"/>
       <c r="G29" s="25"/>
@@ -2856,8 +2906,8 @@
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="54"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
@@ -2865,50 +2915,45 @@
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="54"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="52"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="23"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE29" s="20"/>
-      <c r="AF29" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
+      <c r="AF29" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
     </row>
     <row r="30" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="27">
-        <v>4</v>
-      </c>
-      <c r="F30" s="36">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
+      <c r="B30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="25"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="21">
-        <f>150/60</f>
-        <v>2.5</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="54"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
@@ -2916,52 +2961,55 @@
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="54"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="52"/>
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
-      <c r="AC30" s="70"/>
+      <c r="AC30" s="67"/>
       <c r="AD30" s="23">
-        <f>SUM(G30:V30)</f>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AE30" s="20"/>
-      <c r="AF30" s="62">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
+      <c r="AF30" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
     </row>
     <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="27">
-        <v>16</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="25">
-        <f>80/60</f>
-        <v>1.3333333333333333</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F31" s="36">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="25"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21">
-        <v>2</v>
-      </c>
+      <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="21">
+        <f>150/60</f>
+        <v>2.5</v>
+      </c>
       <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="54"/>
+      <c r="M31" s="21">
+        <v>1</v>
+      </c>
+      <c r="N31" s="55"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
@@ -2969,42 +3017,52 @@
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="54"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="52"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="70"/>
-      <c r="AD31" s="23"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="23">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
       <c r="AE31" s="20"/>
-      <c r="AF31" s="62">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
+      <c r="AF31" s="60">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
     </row>
     <row r="32" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="27">
+        <v>16</v>
+      </c>
       <c r="F32" s="36"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="25">
+        <f>80/60</f>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="I32" s="21">
+        <v>2</v>
+      </c>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="54"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
@@ -3012,34 +3070,35 @@
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="54"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="52"/>
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="23"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="23">
+        <f t="shared" si="4"/>
+        <v>3.333333333333333</v>
+      </c>
       <c r="AE32" s="20"/>
-      <c r="AF32" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
+      <c r="AF32" s="60">
+        <f t="shared" si="5"/>
+        <v>12.666666666666668</v>
+      </c>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
     </row>
     <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="27">
-        <v>2</v>
-      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="36"/>
       <c r="G33" s="25"/>
       <c r="H33" s="21"/>
@@ -3048,8 +3107,8 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="54"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
@@ -3057,33 +3116,36 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="54"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="52"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
-      <c r="AC33" s="70"/>
-      <c r="AD33" s="23"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE33" s="20"/>
-      <c r="AF33" s="62">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
+      <c r="AF33" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
     </row>
     <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="13"/>
       <c r="C34" s="2"/>
       <c r="D34" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="25"/>
@@ -3092,9 +3154,11 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="54"/>
+      <c r="M34" s="21">
+        <v>1</v>
+      </c>
+      <c r="N34" s="55"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
@@ -3102,30 +3166,33 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="54"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="52"/>
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
-      <c r="AC34" s="70"/>
-      <c r="AD34" s="23"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AE34" s="20"/>
-      <c r="AF34" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
+      <c r="AF34" s="60">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
     </row>
     <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="13"/>
       <c r="C35" s="2"/>
       <c r="D35" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E35" s="27">
         <v>8</v>
@@ -3138,8 +3205,10 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="54"/>
+      <c r="N35" s="55">
+        <v>2</v>
+      </c>
+      <c r="O35" s="52"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -3147,32 +3216,37 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="54"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="52"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="23"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="AE35" s="20"/>
-      <c r="AF35" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
+      <c r="AF35" s="60">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
     </row>
     <row r="36" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
-      <c r="B36" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="B36" s="13"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="27">
+        <v>8</v>
+      </c>
       <c r="F36" s="36"/>
       <c r="G36" s="25"/>
       <c r="H36" s="21"/>
@@ -3181,8 +3255,8 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="54"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
@@ -3190,31 +3264,34 @@
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="54"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="52"/>
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="23"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE36" s="20"/>
-      <c r="AF36" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
+      <c r="AF36" s="60">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
     </row>
     <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="D37" s="31"/>
       <c r="E37" s="27"/>
       <c r="F37" s="36"/>
       <c r="G37" s="25"/>
@@ -3222,16 +3299,10 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="21">
-        <f>370/60</f>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="M37" s="21">
-        <f>190/60</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="N37" s="57"/>
-      <c r="O37" s="54"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
@@ -3239,44 +3310,51 @@
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="54"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="52"/>
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
-      <c r="AC37" s="70"/>
-      <c r="AD37" s="23"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE37" s="20"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
+      <c r="AF37" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
     </row>
     <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="2"/>
       <c r="D38" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="27">
-        <v>40</v>
-      </c>
-      <c r="F38" s="36">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="25"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="54"/>
+      <c r="L38" s="21">
+        <f>370/60</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M38" s="21">
+        <f>190/60 +4</f>
+        <v>7.1666666666666661</v>
+      </c>
+      <c r="N38" s="55"/>
+      <c r="O38" s="52"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -3284,40 +3362,40 @@
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="54"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="52"/>
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
-      <c r="AC38" s="70"/>
+      <c r="AC38" s="67"/>
       <c r="AD38" s="23">
-        <f>SUM(G38:V38)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>13.333333333333332</v>
       </c>
       <c r="AE38" s="20"/>
-      <c r="AF38" s="62">
-        <f t="shared" ref="AF38:AF72" si="3">E38-AD38-AE38</f>
-        <v>40</v>
-      </c>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
+      <c r="AF38" s="60">
+        <f t="shared" si="5"/>
+        <v>-13.333333333333332</v>
+      </c>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
     </row>
     <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E39" s="27">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F39" s="36">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="21"/>
@@ -3326,8 +3404,11 @@
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="54"/>
+      <c r="N39" s="55">
+        <f>135/60</f>
+        <v>2.25</v>
+      </c>
+      <c r="O39" s="52"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
@@ -3335,40 +3416,40 @@
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="54"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="52"/>
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
-      <c r="AC39" s="70"/>
+      <c r="AC39" s="67"/>
       <c r="AD39" s="23">
-        <f>SUM(G39:V39)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.25</v>
       </c>
       <c r="AE39" s="20"/>
-      <c r="AF39" s="62">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
+      <c r="AF39" s="60">
+        <f t="shared" si="5"/>
+        <v>37.75</v>
+      </c>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
     </row>
     <row r="40" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E40" s="27">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F40" s="36">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="21"/>
@@ -3377,8 +3458,8 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="54"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="52"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
       <c r="R40" s="21"/>
@@ -3386,36 +3467,41 @@
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="54"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="52"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
-      <c r="AC40" s="70"/>
+      <c r="AC40" s="67"/>
       <c r="AD40" s="23">
-        <f>SUM(G40:V40)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE40" s="20"/>
-      <c r="AF40" s="62">
-        <f t="shared" si="3"/>
+      <c r="AF40" s="60">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+    </row>
+    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="27">
         <v>60</v>
       </c>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-    </row>
-    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="36"/>
+      <c r="F41" s="36">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
       <c r="G41" s="25"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -3423,8 +3509,8 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="54"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="52"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
@@ -3432,34 +3518,34 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="54"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="52"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
-      <c r="AC41" s="70"/>
+      <c r="AC41" s="67"/>
       <c r="AD41" s="23">
-        <f>SUM(G41:V41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE41" s="20"/>
-      <c r="AF41" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
+      <c r="AF41" s="60">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
     </row>
     <row r="42" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="27"/>
       <c r="F42" s="36"/>
       <c r="G42" s="25"/>
@@ -3469,8 +3555,8 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="54"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="52"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
@@ -3478,34 +3564,35 @@
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="54"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="52"/>
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="23"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE42" s="20"/>
-      <c r="AF42" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
+      <c r="AF42" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
     </row>
     <row r="43" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="27">
-        <v>4</v>
-      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="36"/>
       <c r="G43" s="25"/>
       <c r="H43" s="21"/>
@@ -3514,8 +3601,8 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="54"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="52"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
@@ -3523,35 +3610,37 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="54"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="52"/>
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
-      <c r="AC43" s="70"/>
+      <c r="AC43" s="67"/>
       <c r="AD43" s="23">
-        <f>SUM(G43:V43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE43" s="20"/>
-      <c r="AF43" s="62">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
+      <c r="AF43" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
     </row>
     <row r="44" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
-      <c r="B44" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="27"/>
+      <c r="D44" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="27">
+        <v>4</v>
+      </c>
       <c r="F44" s="36"/>
       <c r="G44" s="25"/>
       <c r="H44" s="21"/>
@@ -3560,8 +3649,8 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="54"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="52"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
@@ -3569,34 +3658,35 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="54"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="52"/>
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="23"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE44" s="20"/>
-      <c r="AF44" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
+      <c r="AF44" s="60">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
     </row>
     <row r="45" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="27">
-        <v>1</v>
-      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="36"/>
       <c r="G45" s="25"/>
       <c r="H45" s="21"/>
@@ -3605,8 +3695,8 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="54"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="52"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
@@ -3614,33 +3704,36 @@
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="54"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="52"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
-      <c r="AC45" s="70"/>
-      <c r="AD45" s="23"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE45" s="20"/>
-      <c r="AF45" s="62">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
+      <c r="AF45" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
     </row>
     <row r="46" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="25"/>
@@ -3650,8 +3743,8 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="54"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
@@ -3659,30 +3752,33 @@
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="54"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="52"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
-      <c r="AC46" s="70"/>
-      <c r="AD46" s="23"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE46" s="20"/>
-      <c r="AF46" s="62">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
+      <c r="AF46" s="60">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG46" s="63"/>
+      <c r="AH46" s="63"/>
+      <c r="AI46" s="63"/>
+      <c r="AJ46" s="63"/>
     </row>
     <row r="47" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E47" s="27">
         <v>8</v>
@@ -3695,8 +3791,8 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="54"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="52"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
@@ -3704,32 +3800,37 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="54"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="52"/>
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
-      <c r="AC47" s="70"/>
-      <c r="AD47" s="23"/>
+      <c r="AC47" s="67"/>
+      <c r="AD47" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE47" s="20"/>
-      <c r="AF47" s="62">
-        <f t="shared" si="3"/>
+      <c r="AF47" s="60">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
+      <c r="AG47" s="63"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="63"/>
     </row>
     <row r="48" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
-      <c r="B48" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="27"/>
+      <c r="D48" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="27">
+        <v>8</v>
+      </c>
       <c r="F48" s="36"/>
       <c r="G48" s="25"/>
       <c r="H48" s="21"/>
@@ -3738,8 +3839,8 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="54"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
@@ -3747,37 +3848,35 @@
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="54"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="52"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
-      <c r="AC48" s="70"/>
+      <c r="AC48" s="67"/>
       <c r="AD48" s="23">
-        <f>SUM(G48:V48)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE48" s="20"/>
-      <c r="AF48" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
+      <c r="AF48" s="60">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
     </row>
     <row r="49" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="27">
-        <v>32</v>
-      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="36"/>
       <c r="G49" s="25"/>
       <c r="H49" s="21"/>
@@ -3786,8 +3885,8 @@
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="54"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="52"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
@@ -3795,32 +3894,37 @@
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="54"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="52"/>
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
-      <c r="AC49" s="70"/>
-      <c r="AD49" s="23"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE49" s="20"/>
-      <c r="AF49" s="62">
-        <f t="shared" si="3"/>
+      <c r="AF49" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="63"/>
+      <c r="AH49" s="63"/>
+      <c r="AI49" s="63"/>
+      <c r="AJ49" s="63"/>
+    </row>
+    <row r="50" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="27">
         <v>32</v>
       </c>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-    </row>
-    <row r="50" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="27"/>
       <c r="F50" s="36"/>
       <c r="G50" s="25"/>
       <c r="H50" s="21"/>
@@ -3829,8 +3933,8 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="54"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="52"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
@@ -3838,34 +3942,34 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="54"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="52"/>
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
-      <c r="AC50" s="70"/>
+      <c r="AC50" s="67"/>
       <c r="AD50" s="23">
-        <f>SUM(G50:V50)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE50" s="20"/>
-      <c r="AF50" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="66"/>
+      <c r="AF50" s="60">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
     </row>
     <row r="51" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="27"/>
       <c r="F51" s="36"/>
       <c r="G51" s="25"/>
@@ -3875,8 +3979,8 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="54"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="52"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
@@ -3884,34 +3988,35 @@
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="54"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="52"/>
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
       <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="23"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE51" s="20"/>
-      <c r="AF51" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="66"/>
-      <c r="AH51" s="66"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="66"/>
+      <c r="AF51" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="63"/>
+      <c r="AH51" s="63"/>
+      <c r="AI51" s="63"/>
+      <c r="AJ51" s="63"/>
     </row>
     <row r="52" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="27">
-        <v>1</v>
-      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="36"/>
       <c r="G52" s="25"/>
       <c r="H52" s="21"/>
@@ -3920,8 +4025,8 @@
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="54"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="52"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
@@ -3929,45 +4034,47 @@
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="54"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="52"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="23"/>
+      <c r="AC52" s="67"/>
+      <c r="AD52" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE52" s="20"/>
-      <c r="AF52" s="62">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="66"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="66"/>
+      <c r="AF52" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="63"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="63"/>
     </row>
     <row r="53" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="27">
-        <f>35/60</f>
-        <v>0.58333333333333337</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1</v>
+      </c>
+      <c r="F53" s="36"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="54"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="52"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
@@ -3975,42 +4082,48 @@
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="54"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="52"/>
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="23"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE53" s="20"/>
-      <c r="AF53" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="66"/>
-      <c r="AH53" s="66"/>
-      <c r="AI53" s="66"/>
-      <c r="AJ53" s="66"/>
+      <c r="AF53" s="60">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG53" s="63"/>
+      <c r="AH53" s="63"/>
+      <c r="AI53" s="63"/>
+      <c r="AJ53" s="63"/>
     </row>
     <row r="54" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
-      <c r="B54" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="E54" s="27"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="25"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="27">
+        <f>35/60</f>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="54"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="52"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
@@ -4018,34 +4131,35 @@
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="54"/>
+      <c r="W54" s="55"/>
+      <c r="X54" s="52"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="23"/>
+      <c r="AC54" s="67"/>
+      <c r="AD54" s="23">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
       <c r="AE54" s="20"/>
-      <c r="AF54" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG54" s="66"/>
-      <c r="AH54" s="66"/>
-      <c r="AI54" s="66"/>
-      <c r="AJ54" s="66"/>
+      <c r="AF54" s="60">
+        <f t="shared" si="5"/>
+        <v>-0.58333333333333337</v>
+      </c>
+      <c r="AG54" s="63"/>
+      <c r="AH54" s="63"/>
+      <c r="AI54" s="63"/>
+      <c r="AJ54" s="63"/>
     </row>
     <row r="55" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="27">
-        <v>0</v>
-      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="36"/>
       <c r="G55" s="25"/>
       <c r="H55" s="21"/>
@@ -4054,8 +4168,8 @@
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="54"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="52"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
@@ -4063,30 +4177,33 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="54"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="52"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="23"/>
+      <c r="AC55" s="67"/>
+      <c r="AD55" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE55" s="20"/>
-      <c r="AF55" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="66"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="66"/>
+      <c r="AF55" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
+      <c r="AI55" s="63"/>
+      <c r="AJ55" s="63"/>
     </row>
     <row r="56" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="27">
         <v>0</v>
@@ -4099,8 +4216,8 @@
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="54"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="52"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
@@ -4108,30 +4225,33 @@
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="54"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="52"/>
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="23"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE56" s="20"/>
-      <c r="AF56" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="66"/>
-      <c r="AH56" s="66"/>
-      <c r="AI56" s="66"/>
-      <c r="AJ56" s="66"/>
+      <c r="AF56" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="63"/>
+      <c r="AH56" s="63"/>
+      <c r="AI56" s="63"/>
+      <c r="AJ56" s="63"/>
     </row>
     <row r="57" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E57" s="27">
         <v>0</v>
@@ -4144,8 +4264,8 @@
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="54"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="52"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
@@ -4153,32 +4273,37 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="54"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="52"/>
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="23"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE57" s="20"/>
-      <c r="AF57" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="66"/>
-      <c r="AH57" s="66"/>
-      <c r="AI57" s="66"/>
-      <c r="AJ57" s="66"/>
+      <c r="AF57" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="63"/>
+      <c r="AH57" s="63"/>
+      <c r="AI57" s="63"/>
+      <c r="AJ57" s="63"/>
     </row>
     <row r="58" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
-      <c r="B58" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="27"/>
+      <c r="D58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="27">
+        <v>0</v>
+      </c>
       <c r="F58" s="36"/>
       <c r="G58" s="25"/>
       <c r="H58" s="21"/>
@@ -4187,8 +4312,8 @@
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="54"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="52"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
@@ -4196,34 +4321,34 @@
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="54"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="52"/>
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
-      <c r="AC58" s="70"/>
+      <c r="AC58" s="67"/>
       <c r="AD58" s="23">
-        <f>SUM(G58:V58)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE58" s="20"/>
-      <c r="AF58" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="66"/>
-      <c r="AH58" s="66"/>
-      <c r="AI58" s="66"/>
-      <c r="AJ58" s="66"/>
+      <c r="AF58" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="63"/>
+      <c r="AH58" s="63"/>
+      <c r="AI58" s="63"/>
+      <c r="AJ58" s="63"/>
     </row>
     <row r="59" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="31" t="s">
-        <v>33</v>
-      </c>
+      <c r="D59" s="31"/>
       <c r="E59" s="27"/>
       <c r="F59" s="36"/>
       <c r="G59" s="25"/>
@@ -4233,8 +4358,8 @@
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="54"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="52"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
       <c r="R59" s="21"/>
@@ -4242,29 +4367,34 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="54"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="52"/>
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="23"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE59" s="20"/>
-      <c r="AF59" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="66"/>
-      <c r="AH59" s="66"/>
-      <c r="AI59" s="66"/>
-      <c r="AJ59" s="66"/>
+      <c r="AF59" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="63"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="63"/>
     </row>
     <row r="60" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="E60" s="27"/>
       <c r="F60" s="36"/>
       <c r="G60" s="25"/>
@@ -4274,8 +4404,8 @@
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="54"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="52"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
@@ -4283,29 +4413,34 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="54"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="52"/>
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="23"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AE60" s="20"/>
-      <c r="AF60" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="66"/>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
+      <c r="AF60" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="63"/>
+      <c r="AH60" s="63"/>
+      <c r="AI60" s="63"/>
+      <c r="AJ60" s="63"/>
     </row>
     <row r="61" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E61" s="27"/>
       <c r="F61" s="36"/>
       <c r="G61" s="25"/>
@@ -4314,9 +4449,11 @@
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="54"/>
+      <c r="M61" s="21">
+        <v>4</v>
+      </c>
+      <c r="N61" s="55"/>
+      <c r="O61" s="52"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
@@ -4324,31 +4461,34 @@
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="54"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="52"/>
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="23"/>
+      <c r="AC61" s="67"/>
+      <c r="AD61" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="AE61" s="20"/>
-      <c r="AF61" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="66"/>
-      <c r="AH61" s="66"/>
-      <c r="AI61" s="66"/>
-      <c r="AJ61" s="66"/>
+      <c r="AF61" s="60">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="AG61" s="63"/>
+      <c r="AH61" s="63"/>
+      <c r="AI61" s="63"/>
+      <c r="AJ61" s="63"/>
     </row>
     <row r="62" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="E62" s="27"/>
       <c r="F62" s="36"/>
       <c r="G62" s="25"/>
@@ -4358,8 +4498,8 @@
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="54"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="52"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
@@ -4367,41 +4507,34 @@
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="54"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="52"/>
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
-      <c r="AC62" s="70"/>
+      <c r="AC62" s="67"/>
       <c r="AD62" s="23">
-        <f t="shared" ref="AD62:AD72" si="4">SUM(G62:V62)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE62" s="20"/>
-      <c r="AF62" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="66"/>
-      <c r="AH62" s="66"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="66"/>
+      <c r="AF62" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="63"/>
+      <c r="AH62" s="63"/>
+      <c r="AI62" s="63"/>
+      <c r="AJ62" s="63"/>
     </row>
     <row r="63" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="27">
-        <v>0</v>
-      </c>
-      <c r="F63" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A63" s="14"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="36"/>
       <c r="G63" s="25"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -4409,8 +4542,8 @@
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="54"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="52"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
       <c r="R63" s="21"/>
@@ -4418,41 +4551,34 @@
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="54"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="52"/>
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
       <c r="AA63" s="21"/>
       <c r="AB63" s="21"/>
-      <c r="AC63" s="70"/>
+      <c r="AC63" s="67"/>
       <c r="AD63" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE63" s="20"/>
-      <c r="AF63" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="66"/>
+      <c r="AF63" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="63"/>
+      <c r="AH63" s="63"/>
+      <c r="AI63" s="63"/>
+      <c r="AJ63" s="63"/>
     </row>
     <row r="64" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="27">
-        <v>0</v>
-      </c>
-      <c r="F64" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A64" s="14"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="36"/>
       <c r="G64" s="25"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -4460,8 +4586,8 @@
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="54"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="52"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
       <c r="R64" s="21"/>
@@ -4469,41 +4595,36 @@
       <c r="T64" s="21"/>
       <c r="U64" s="21"/>
       <c r="V64" s="21"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="54"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="52"/>
       <c r="Y64" s="21"/>
       <c r="Z64" s="21"/>
       <c r="AA64" s="21"/>
       <c r="AB64" s="21"/>
-      <c r="AC64" s="70"/>
+      <c r="AC64" s="67"/>
       <c r="AD64" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE64" s="20"/>
-      <c r="AF64" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
-      <c r="AI64" s="66"/>
-      <c r="AJ64" s="66"/>
+      <c r="AF64" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="63"/>
+      <c r="AH64" s="63"/>
+      <c r="AI64" s="63"/>
+      <c r="AJ64" s="63"/>
     </row>
     <row r="65" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="27">
-        <v>0</v>
-      </c>
-      <c r="F65" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A65" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="36"/>
       <c r="G65" s="25"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
@@ -4511,8 +4632,8 @@
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="54"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="52"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
       <c r="R65" s="21"/>
@@ -4520,35 +4641,39 @@
       <c r="T65" s="21"/>
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
-      <c r="W65" s="57"/>
-      <c r="X65" s="54"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="52"/>
       <c r="Y65" s="21"/>
       <c r="Z65" s="21"/>
       <c r="AA65" s="21"/>
       <c r="AB65" s="21"/>
-      <c r="AC65" s="70"/>
+      <c r="AC65" s="67"/>
       <c r="AD65" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE65" s="20"/>
-      <c r="AF65" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="66"/>
+      <c r="AF65" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="63"/>
+      <c r="AH65" s="63"/>
+      <c r="AI65" s="63"/>
+      <c r="AJ65" s="63"/>
     </row>
     <row r="66" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="27"/>
+      <c r="D66" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="27">
+        <v>0</v>
+      </c>
       <c r="F66" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="25"/>
@@ -4558,8 +4683,8 @@
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="54"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="52"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
@@ -4567,37 +4692,39 @@
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
-      <c r="W66" s="57"/>
-      <c r="X66" s="54"/>
+      <c r="W66" s="55"/>
+      <c r="X66" s="52"/>
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
-      <c r="AC66" s="70"/>
+      <c r="AC66" s="67"/>
       <c r="AD66" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE66" s="20"/>
-      <c r="AF66" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="66"/>
-      <c r="AH66" s="66"/>
-      <c r="AI66" s="66"/>
-      <c r="AJ66" s="66"/>
+      <c r="AF66" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="63"/>
+      <c r="AH66" s="63"/>
+      <c r="AI66" s="63"/>
+      <c r="AJ66" s="63"/>
     </row>
     <row r="67" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="27"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="27">
+        <v>0</v>
+      </c>
       <c r="F67" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="25"/>
@@ -4607,8 +4734,8 @@
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="54"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="52"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="21"/>
@@ -4616,37 +4743,39 @@
       <c r="T67" s="21"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
-      <c r="W67" s="57"/>
-      <c r="X67" s="54"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="52"/>
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
-      <c r="AC67" s="70"/>
+      <c r="AC67" s="67"/>
       <c r="AD67" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE67" s="20"/>
-      <c r="AF67" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="66"/>
-      <c r="AI67" s="66"/>
-      <c r="AJ67" s="66"/>
+      <c r="AF67" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="63"/>
+      <c r="AH67" s="63"/>
+      <c r="AI67" s="63"/>
+      <c r="AJ67" s="63"/>
     </row>
     <row r="68" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="27"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="27">
+        <v>0</v>
+      </c>
       <c r="F68" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="25"/>
@@ -4656,8 +4785,8 @@
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="54"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="52"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
       <c r="R68" s="21"/>
@@ -4665,64 +4794,46 @@
       <c r="T68" s="21"/>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
-      <c r="W68" s="57"/>
-      <c r="X68" s="54"/>
+      <c r="W68" s="55"/>
+      <c r="X68" s="52"/>
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
       <c r="AA68" s="21"/>
       <c r="AB68" s="21"/>
-      <c r="AC68" s="70"/>
+      <c r="AC68" s="67"/>
       <c r="AD68" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE68" s="20"/>
-      <c r="AF68" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="66"/>
-      <c r="AI68" s="66"/>
-      <c r="AJ68" s="66"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="AF68" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="63"/>
+      <c r="AH68" s="63"/>
+      <c r="AI68" s="63"/>
+      <c r="AJ68" s="63"/>
+    </row>
+    <row r="69" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="27">
-        <v>4</v>
-      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="36">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="G69" s="25">
-        <f>30/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="H69" s="21">
-        <v>2.5</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="21"/>
       <c r="I69" s="21"/>
-      <c r="J69" s="21">
-        <f>45/60</f>
-        <v>0.75</v>
-      </c>
+      <c r="J69" s="21"/>
       <c r="K69" s="21"/>
-      <c r="L69" s="21">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M69" s="21">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N69" s="57"/>
-      <c r="O69" s="54"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="52"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="21"/>
       <c r="R69" s="21"/>
@@ -4730,40 +4841,38 @@
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
-      <c r="W69" s="57"/>
-      <c r="X69" s="54"/>
+      <c r="W69" s="55"/>
+      <c r="X69" s="52"/>
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
       <c r="AA69" s="21"/>
       <c r="AB69" s="21"/>
-      <c r="AC69" s="70"/>
+      <c r="AC69" s="67"/>
       <c r="AD69" s="23">
         <f t="shared" si="4"/>
-        <v>4.4166666666666661</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="20"/>
-      <c r="AF69" s="62">
-        <f t="shared" si="3"/>
-        <v>-0.41666666666666607</v>
-      </c>
-      <c r="AG69" s="66"/>
-      <c r="AH69" s="66"/>
-      <c r="AI69" s="66"/>
-      <c r="AJ69" s="66"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="27">
-        <v>2</v>
-      </c>
+      <c r="AF69" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="63"/>
+      <c r="AH69" s="63"/>
+      <c r="AI69" s="63"/>
+      <c r="AJ69" s="63"/>
+    </row>
+    <row r="70" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="36">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="21"/>
@@ -4772,8 +4881,8 @@
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="54"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="52"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
@@ -4781,68 +4890,48 @@
       <c r="T70" s="21"/>
       <c r="U70" s="21"/>
       <c r="V70" s="21"/>
-      <c r="W70" s="57"/>
-      <c r="X70" s="54"/>
+      <c r="W70" s="55"/>
+      <c r="X70" s="52"/>
       <c r="Y70" s="21"/>
       <c r="Z70" s="21"/>
       <c r="AA70" s="21"/>
       <c r="AB70" s="21"/>
-      <c r="AC70" s="70"/>
+      <c r="AC70" s="67"/>
       <c r="AD70" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE70" s="20"/>
-      <c r="AF70" s="62">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AG70" s="66"/>
-      <c r="AH70" s="66"/>
-      <c r="AI70" s="66"/>
-      <c r="AJ70" s="66"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="27">
-        <v>14</v>
-      </c>
+      <c r="AF70" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="63"/>
+      <c r="AH70" s="63"/>
+      <c r="AI70" s="63"/>
+      <c r="AJ70" s="63"/>
+    </row>
+    <row r="71" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="36">
-        <f t="shared" ref="F71:F72" si="5">E71/8</f>
-        <v>1.75</v>
-      </c>
-      <c r="G71" s="25">
-        <f>40/60</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H71" s="21">
-        <f>40/60</f>
-        <v>0.66666666666666663</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="21"/>
       <c r="I71" s="21"/>
-      <c r="J71" s="21">
-        <f>45/60</f>
-        <v>0.75</v>
-      </c>
-      <c r="K71" s="21">
-        <f>25/60</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L71" s="21">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M71" s="21">
-        <f>25/60</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="N71" s="57"/>
-      <c r="O71" s="54"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="52"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
@@ -4850,221 +4939,411 @@
       <c r="T71" s="21"/>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
-      <c r="W71" s="57"/>
-      <c r="X71" s="54"/>
+      <c r="W71" s="55"/>
+      <c r="X71" s="52"/>
       <c r="Y71" s="21"/>
       <c r="Z71" s="21"/>
       <c r="AA71" s="21"/>
       <c r="AB71" s="21"/>
-      <c r="AC71" s="70"/>
+      <c r="AC71" s="67"/>
       <c r="AD71" s="23">
         <f t="shared" si="4"/>
-        <v>3.2499999999999996</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="20"/>
-      <c r="AF71" s="62">
-        <f t="shared" si="3"/>
-        <v>10.75</v>
-      </c>
-      <c r="AG71" s="66"/>
-      <c r="AH71" s="66"/>
-      <c r="AI71" s="66"/>
-      <c r="AJ71" s="66"/>
-    </row>
-    <row r="72" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41">
+      <c r="AF71" s="60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="63"/>
+      <c r="AH71" s="63"/>
+      <c r="AI71" s="63"/>
+      <c r="AJ71" s="63"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="27">
         <v>4</v>
       </c>
-      <c r="F72" s="42">
-        <f t="shared" si="5"/>
+      <c r="F72" s="36">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="G72" s="43"/>
-      <c r="H72" s="44">
-        <v>1</v>
-      </c>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44">
+      <c r="G72" s="25">
+        <f>30/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21">
+        <f>45/60</f>
+        <v>0.75</v>
+      </c>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M72" s="21">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N72" s="55">
+        <f>20/60+45/60</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="O72" s="52"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="55"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="67"/>
+      <c r="AD72" s="23">
+        <f t="shared" si="4"/>
+        <v>5.4999999999999991</v>
+      </c>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="60">
+        <f t="shared" si="5"/>
+        <v>-1.4999999999999991</v>
+      </c>
+      <c r="AG72" s="63"/>
+      <c r="AH72" s="63"/>
+      <c r="AI72" s="63"/>
+      <c r="AJ72" s="63"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="27">
+        <v>2</v>
+      </c>
+      <c r="F73" s="36">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="55">
+        <v>1.3</v>
+      </c>
+      <c r="O73" s="52"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="55"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="67"/>
+      <c r="AD73" s="23">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="60">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="AG73" s="63"/>
+      <c r="AH73" s="63"/>
+      <c r="AI73" s="63"/>
+      <c r="AJ73" s="63"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="27">
+        <v>14</v>
+      </c>
+      <c r="F74" s="36">
+        <f t="shared" ref="F74:F75" si="7">E74/8</f>
+        <v>1.75</v>
+      </c>
+      <c r="G74" s="25">
         <f>40/60</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="58"/>
-      <c r="X72" s="55"/>
-      <c r="Y72" s="44"/>
-      <c r="Z72" s="44"/>
-      <c r="AA72" s="44"/>
-      <c r="AB72" s="44"/>
-      <c r="AC72" s="71"/>
-      <c r="AD72" s="45">
-        <f t="shared" si="4"/>
+      <c r="H74" s="21">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21">
+        <f>45/60</f>
+        <v>0.75</v>
+      </c>
+      <c r="K74" s="21">
+        <f>25/60</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L74" s="21">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M74" s="21">
+        <f>25/60</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N74" s="55"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="55"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="67"/>
+      <c r="AD74" s="23">
+        <f t="shared" si="4"/>
+        <v>3.2499999999999996</v>
+      </c>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="60">
+        <f t="shared" si="5"/>
+        <v>10.75</v>
+      </c>
+      <c r="AG74" s="63"/>
+      <c r="AH74" s="63"/>
+      <c r="AI74" s="63"/>
+      <c r="AJ74" s="63"/>
+    </row>
+    <row r="75" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41">
+        <v>4</v>
+      </c>
+      <c r="F75" s="42">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44">
+        <v>1</v>
+      </c>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="53"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="56"/>
+      <c r="X75" s="53"/>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="44"/>
+      <c r="AC75" s="68"/>
+      <c r="AD75" s="23">
+        <f t="shared" ref="AD75" si="8">SUM(G75:V75)</f>
         <v>1.6666666666666665</v>
       </c>
-      <c r="AE72" s="46"/>
-      <c r="AF72" s="63">
-        <f t="shared" si="3"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="60">
+        <f t="shared" ref="AF75" si="9">E75-AD75-AE75</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AG72" s="66"/>
-      <c r="AH72" s="66"/>
-      <c r="AI72" s="66"/>
-      <c r="AJ72" s="66"/>
-    </row>
-    <row r="73" spans="1:36" s="1" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="AG75" s="63"/>
+      <c r="AH75" s="63"/>
+      <c r="AI75" s="63"/>
+      <c r="AJ75" s="63"/>
+    </row>
+    <row r="76" spans="1:36" s="1" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49">
-        <f t="shared" ref="E73:U73" si="6">SUM(E3:E72)</f>
-        <v>412</v>
-      </c>
-      <c r="F73" s="50"/>
-      <c r="G73" s="49">
-        <f t="shared" si="6"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="47">
+        <f t="shared" ref="E76:U76" si="10">SUM(E3:E75)</f>
+        <v>416</v>
+      </c>
+      <c r="F76" s="48"/>
+      <c r="G76" s="47">
+        <f t="shared" si="10"/>
         <v>3.083333333333333</v>
       </c>
-      <c r="H73" s="51">
-        <f t="shared" si="6"/>
+      <c r="H76" s="49">
+        <f t="shared" si="10"/>
         <v>7.25</v>
       </c>
-      <c r="I73" s="51">
-        <f t="shared" si="6"/>
+      <c r="I76" s="49">
+        <f t="shared" si="10"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="J73" s="51">
-        <f t="shared" si="6"/>
+      <c r="J76" s="49">
+        <f t="shared" si="10"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="K73" s="51">
-        <f t="shared" si="6"/>
+      <c r="K76" s="49">
+        <f t="shared" si="10"/>
         <v>7.5833333333333339</v>
       </c>
-      <c r="L73" s="51">
-        <f t="shared" si="6"/>
+      <c r="L76" s="49">
+        <f t="shared" si="10"/>
         <v>15.833333333333336</v>
       </c>
-      <c r="M73" s="51">
-        <f t="shared" si="6"/>
-        <v>3.9166666666666665</v>
-      </c>
-      <c r="N73" s="59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="51">
-        <f t="shared" ref="V73:AC73" si="7">SUM(V3:V72)</f>
-        <v>0</v>
-      </c>
-      <c r="W73" s="59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="52">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC73" s="72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="52">
-        <f>SUM(AD3:AD72)</f>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="AE73" s="51">
-        <f>SUM(AE3:AE72)</f>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="64">
-        <f>SUM(AF3:AF72)</f>
-        <v>380.33333333333326</v>
-      </c>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="67"/>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG74" s="68"/>
-      <c r="AH74" s="68"/>
-      <c r="AI74" s="68"/>
-      <c r="AJ74" s="68"/>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG75" s="68"/>
-      <c r="AH75" s="68"/>
-      <c r="AI75" s="68"/>
-      <c r="AJ75" s="68"/>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AG76" s="68"/>
-      <c r="AH76" s="68"/>
-      <c r="AI76" s="68"/>
-      <c r="AJ76" s="68"/>
+      <c r="M76" s="49">
+        <f t="shared" si="10"/>
+        <v>16.916666666666664</v>
+      </c>
+      <c r="N76" s="57">
+        <f t="shared" si="10"/>
+        <v>20.683333333333334</v>
+      </c>
+      <c r="O76" s="50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="49">
+        <f t="shared" ref="V76:AC76" si="11">SUM(V3:V75)</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="57">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD76" s="50">
+        <f>SUM(AD3:AD75)</f>
+        <v>84.183333333333337</v>
+      </c>
+      <c r="AE76" s="49">
+        <f>SUM(AE3:AE75)</f>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="61">
+        <f>SUM(AF3:AF75)</f>
+        <v>327.81666666666666</v>
+      </c>
+      <c r="AG76" s="64"/>
+      <c r="AH76" s="64"/>
+      <c r="AI76" s="64"/>
+      <c r="AJ76" s="64"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG77" s="65"/>
+      <c r="AH77" s="65"/>
+      <c r="AI77" s="65"/>
+      <c r="AJ77" s="65"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG78" s="65"/>
+      <c r="AH78" s="65"/>
+      <c r="AI78" s="65"/>
+      <c r="AJ78" s="65"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AG79" s="65"/>
+      <c r="AH79" s="65"/>
+      <c r="AI79" s="65"/>
+      <c r="AJ79" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5141,20 +5420,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5175,18 +5454,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\HEIG-VD\Travail de bachelor\AutonomousRcCar\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{56ACA089-8EBB-4930-B4C5-D77E2E2C3B0A}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{208B4171-C588-46EB-AC04-9AD6234EE751}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="4" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
   <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W92" sqref="W92"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3965,9 +3965,18 @@
         <f>(202+16+2+69)/60</f>
         <v>4.8166666666666664</v>
       </c>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
+      <c r="P49" s="83">
+        <f>(21+32+28+35+69)/60</f>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="Q49" s="83">
+        <f>(73+75+26+3*60+10+37)/60</f>
+        <v>6.6833333333333336</v>
+      </c>
+      <c r="R49" s="83">
+        <f>(64)/60</f>
+        <v>1.0666666666666667</v>
+      </c>
       <c r="S49" s="83"/>
       <c r="T49" s="83"/>
       <c r="U49" s="83"/>
@@ -3981,11 +3990,11 @@
       <c r="AC49" s="86"/>
       <c r="AD49" s="16">
         <f t="shared" si="4"/>
-        <v>13.933333333333334</v>
+        <v>24.766666666666666</v>
       </c>
       <c r="AE49" s="48">
         <f t="shared" si="2"/>
-        <v>26.066666666666666</v>
+        <v>15.233333333333334</v>
       </c>
       <c r="AF49" s="42"/>
       <c r="AG49" s="42"/>
@@ -4016,8 +4025,14 @@
       <c r="N50" s="84"/>
       <c r="O50" s="85"/>
       <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
+      <c r="Q50" s="83">
+        <f>(134+42+5)/60</f>
+        <v>3.0166666666666666</v>
+      </c>
+      <c r="R50" s="83">
+        <f>(19+20+133)/60</f>
+        <v>2.8666666666666667</v>
+      </c>
       <c r="S50" s="83"/>
       <c r="T50" s="83"/>
       <c r="U50" s="83"/>
@@ -4031,11 +4046,11 @@
       <c r="AC50" s="86"/>
       <c r="AD50" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.8833333333333329</v>
       </c>
       <c r="AE50" s="48">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>74.116666666666674</v>
       </c>
       <c r="AF50" s="42"/>
       <c r="AG50" s="42"/>
@@ -5512,7 +5527,10 @@
         <v>1.3</v>
       </c>
       <c r="O82" s="85"/>
-      <c r="P82" s="83"/>
+      <c r="P82" s="83">
+        <f>11/60</f>
+        <v>0.18333333333333332</v>
+      </c>
       <c r="Q82" s="83"/>
       <c r="R82" s="83"/>
       <c r="S82" s="83"/>
@@ -5528,11 +5546,11 @@
       <c r="AC82" s="86"/>
       <c r="AD82" s="16">
         <f t="shared" si="4"/>
-        <v>1.3</v>
+        <v>1.4833333333333334</v>
       </c>
       <c r="AE82" s="48">
         <f t="shared" si="16"/>
-        <v>0.7</v>
+        <v>0.51666666666666661</v>
       </c>
       <c r="AF82" s="42"/>
       <c r="AG82" s="42"/>
@@ -5580,8 +5598,14 @@
       </c>
       <c r="N83" s="84"/>
       <c r="O83" s="85"/>
-      <c r="P83" s="83"/>
-      <c r="Q83" s="83"/>
+      <c r="P83" s="83">
+        <f>11/60</f>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="Q83" s="83">
+        <f>16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
       <c r="R83" s="83"/>
       <c r="S83" s="83"/>
       <c r="T83" s="83"/>
@@ -5596,11 +5620,11 @@
       <c r="AC83" s="86"/>
       <c r="AD83" s="16">
         <f t="shared" si="4"/>
-        <v>3.2499999999999996</v>
+        <v>3.6999999999999993</v>
       </c>
       <c r="AE83" s="48">
         <f t="shared" si="16"/>
-        <v>10.75</v>
+        <v>10.3</v>
       </c>
       <c r="AF83" s="42"/>
       <c r="AG83" s="42"/>
@@ -5715,15 +5739,15 @@
       </c>
       <c r="P85" s="35">
         <f t="shared" si="21"/>
-        <v>0.83333333333333337</v>
+        <v>4.2833333333333341</v>
       </c>
       <c r="Q85" s="35">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>9.9666666666666668</v>
       </c>
       <c r="R85" s="35">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3.9333333333333336</v>
       </c>
       <c r="S85" s="35">
         <f t="shared" si="21"/>
@@ -5771,11 +5795,11 @@
       </c>
       <c r="AD85" s="36">
         <f t="shared" si="21"/>
-        <v>112.44999999999999</v>
+        <v>129.79999999999998</v>
       </c>
       <c r="AE85" s="50">
         <f t="shared" ref="AE85" si="22">E85-AD85</f>
-        <v>328.55</v>
+        <v>311.20000000000005</v>
       </c>
       <c r="AF85" s="43"/>
       <c r="AG85" s="43"/>
@@ -5892,20 +5916,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5926,18 +5950,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\OneDrive\HEIG-VD\Travail de bachelor\AutonomousRcCar\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{208B4171-C588-46EB-AC04-9AD6234EE751}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{5219352C-EAB2-4E6A-A558-50FA0ACAAB79}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="4" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
   <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2247,7 +2247,9 @@
       <c r="O13" s="85"/>
       <c r="P13" s="83"/>
       <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
+      <c r="R13" s="83">
+        <v>1</v>
+      </c>
       <c r="S13" s="83"/>
       <c r="T13" s="83"/>
       <c r="U13" s="83"/>
@@ -2261,11 +2263,11 @@
       <c r="AC13" s="86"/>
       <c r="AD13" s="16">
         <f t="shared" si="4"/>
-        <v>8.2166666666666668</v>
+        <v>9.2166666666666668</v>
       </c>
       <c r="AE13" s="48">
         <f t="shared" si="2"/>
-        <v>-0.21666666666666679</v>
+        <v>-1.2166666666666668</v>
       </c>
       <c r="AF13" s="42"/>
       <c r="AG13" s="42"/>
@@ -2871,7 +2873,10 @@
       <c r="P26" s="83"/>
       <c r="Q26" s="83"/>
       <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
+      <c r="S26" s="83">
+        <f>55/60</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="T26" s="83"/>
       <c r="U26" s="83"/>
       <c r="V26" s="83"/>
@@ -2884,11 +2889,11 @@
       <c r="AC26" s="86"/>
       <c r="AD26" s="16">
         <f t="shared" si="6"/>
-        <v>2.8333333333333335</v>
+        <v>3.75</v>
       </c>
       <c r="AE26" s="48">
         <f t="shared" si="2"/>
-        <v>-2.8333333333333335</v>
+        <v>-3.75</v>
       </c>
       <c r="AF26" s="42"/>
       <c r="AG26" s="42"/>
@@ -3818,8 +3823,14 @@
       </c>
       <c r="P46" s="83"/>
       <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
+      <c r="R46" s="83">
+        <f>(11+30+10+12)/60</f>
+        <v>1.05</v>
+      </c>
+      <c r="S46" s="83">
+        <f>67/60</f>
+        <v>1.1166666666666667</v>
+      </c>
       <c r="T46" s="83"/>
       <c r="U46" s="83"/>
       <c r="V46" s="83"/>
@@ -3832,11 +3843,11 @@
       <c r="AC46" s="86"/>
       <c r="AD46" s="16">
         <f t="shared" ref="AD46" si="11">SUM(G46:V46)</f>
-        <v>0.66666666666666663</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="AE46" s="48">
         <f t="shared" si="2"/>
-        <v>7.333333333333333</v>
+        <v>5.1666666666666661</v>
       </c>
       <c r="AF46" s="42"/>
       <c r="AG46" s="42"/>
@@ -3974,8 +3985,8 @@
         <v>6.6833333333333336</v>
       </c>
       <c r="R49" s="83">
-        <f>(64)/60</f>
-        <v>1.0666666666666667</v>
+        <f>(64+53+41)/60</f>
+        <v>2.6333333333333333</v>
       </c>
       <c r="S49" s="83"/>
       <c r="T49" s="83"/>
@@ -3990,11 +4001,11 @@
       <c r="AC49" s="86"/>
       <c r="AD49" s="16">
         <f t="shared" si="4"/>
-        <v>24.766666666666666</v>
+        <v>26.333333333333332</v>
       </c>
       <c r="AE49" s="48">
         <f t="shared" si="2"/>
-        <v>15.233333333333334</v>
+        <v>13.666666666666668</v>
       </c>
       <c r="AF49" s="42"/>
       <c r="AG49" s="42"/>
@@ -4030,10 +4041,13 @@
         <v>3.0166666666666666</v>
       </c>
       <c r="R50" s="83">
-        <f>(19+20+133)/60</f>
-        <v>2.8666666666666667</v>
-      </c>
-      <c r="S50" s="83"/>
+        <f>(19+20+133+35+4+30+30+3*60+2*60)/60</f>
+        <v>9.5166666666666675</v>
+      </c>
+      <c r="S50" s="83">
+        <f>(2+3+2+132+5*60+11+14+90+40)/60</f>
+        <v>9.9</v>
+      </c>
       <c r="T50" s="83"/>
       <c r="U50" s="83"/>
       <c r="V50" s="83"/>
@@ -4046,11 +4060,11 @@
       <c r="AC50" s="86"/>
       <c r="AD50" s="16">
         <f t="shared" si="4"/>
-        <v>5.8833333333333329</v>
+        <v>22.433333333333337</v>
       </c>
       <c r="AE50" s="48">
         <f t="shared" si="2"/>
-        <v>74.116666666666674</v>
+        <v>57.566666666666663</v>
       </c>
       <c r="AF50" s="42"/>
       <c r="AG50" s="42"/>
@@ -5477,8 +5491,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="Q81" s="83"/>
-      <c r="R81" s="83"/>
-      <c r="S81" s="83"/>
+      <c r="R81" s="83">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S81" s="83">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="T81" s="83"/>
       <c r="U81" s="83"/>
       <c r="V81" s="83"/>
@@ -5491,11 +5511,11 @@
       <c r="AC81" s="86"/>
       <c r="AD81" s="16">
         <f t="shared" si="4"/>
-        <v>6.3333333333333321</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="AE81" s="48">
         <f t="shared" si="16"/>
-        <v>-2.3333333333333321</v>
+        <v>-2.6666666666666661</v>
       </c>
       <c r="AF81" s="42"/>
       <c r="AG81" s="42"/>
@@ -5606,7 +5626,10 @@
         <f>16/60</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="R83" s="83"/>
+      <c r="R83" s="83">
+        <f>18/60</f>
+        <v>0.3</v>
+      </c>
       <c r="S83" s="83"/>
       <c r="T83" s="83"/>
       <c r="U83" s="83"/>
@@ -5620,11 +5643,11 @@
       <c r="AC83" s="86"/>
       <c r="AD83" s="16">
         <f t="shared" si="4"/>
-        <v>3.6999999999999993</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="AE83" s="48">
         <f t="shared" si="16"/>
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="AF83" s="42"/>
       <c r="AG83" s="42"/>
@@ -5747,11 +5770,11 @@
       </c>
       <c r="R85" s="35">
         <f t="shared" si="21"/>
-        <v>3.9333333333333336</v>
+        <v>14.666666666666668</v>
       </c>
       <c r="S85" s="35">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="T85" s="35">
         <f t="shared" si="21"/>
@@ -5795,11 +5818,11 @@
       </c>
       <c r="AD85" s="36">
         <f t="shared" si="21"/>
-        <v>129.79999999999998</v>
+        <v>152.63333333333333</v>
       </c>
       <c r="AE85" s="50">
         <f t="shared" ref="AE85" si="22">E85-AD85</f>
-        <v>311.20000000000005</v>
+        <v>288.36666666666667</v>
       </c>
       <c r="AF85" s="43"/>
       <c r="AG85" s="43"/>
@@ -5916,20 +5939,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5950,18 +5973,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -1131,16 +1131,16 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,8 +1501,8 @@
   <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD88" sqref="AD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1596,12 +1596,12 @@
       <c r="AH1" s="33"/>
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
+      <c r="A2" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="23" t="s">
         <v>30</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>1.75</v>
       </c>
       <c r="AD5" s="44">
-        <f>E5-AC5</f>
+        <f t="shared" ref="AD5:AD36" si="0">E5-AC5</f>
         <v>6.25</v>
       </c>
       <c r="AE5" s="38"/>
@@ -1847,11 +1847,11 @@
       <c r="AA6" s="76"/>
       <c r="AB6" s="79"/>
       <c r="AC6" s="16">
-        <f t="shared" ref="AC6:AC69" si="0">SUM(F6:AB6)</f>
+        <f t="shared" ref="AC6:AC69" si="1">SUM(F6:AB6)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AD6" s="44">
-        <f>E6-AC6</f>
+        <f t="shared" si="0"/>
         <v>2.666666666666667</v>
       </c>
       <c r="AE6" s="38"/>
@@ -1895,11 +1895,11 @@
       <c r="AA7" s="76"/>
       <c r="AB7" s="79"/>
       <c r="AC7" s="16">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD7" s="44">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AD7" s="44">
-        <f>E7-AC7</f>
         <v>-1.5</v>
       </c>
       <c r="AE7" s="38"/>
@@ -1939,11 +1939,11 @@
       <c r="AA8" s="81"/>
       <c r="AB8" s="84"/>
       <c r="AC8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="44">
-        <f>E8-AC8</f>
         <v>0</v>
       </c>
       <c r="AE8" s="38"/>
@@ -1988,11 +1988,11 @@
       <c r="AA9" s="76"/>
       <c r="AB9" s="79"/>
       <c r="AC9" s="16">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="AD9" s="44">
         <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="AD9" s="44">
-        <f>E9-AC9</f>
         <v>1.75</v>
       </c>
       <c r="AE9" s="38"/>
@@ -2034,11 +2034,11 @@
       <c r="AA10" s="76"/>
       <c r="AB10" s="79"/>
       <c r="AC10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="44">
-        <f>E10-AC10</f>
         <v>1</v>
       </c>
       <c r="AE10" s="38"/>
@@ -2080,11 +2080,11 @@
       <c r="AA11" s="76"/>
       <c r="AB11" s="79"/>
       <c r="AC11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="44">
-        <f>E11-AC11</f>
         <v>4</v>
       </c>
       <c r="AE11" s="38"/>
@@ -2131,11 +2131,11 @@
       <c r="AA12" s="76"/>
       <c r="AB12" s="79"/>
       <c r="AC12" s="16">
+        <f t="shared" si="1"/>
+        <v>9.2166666666666668</v>
+      </c>
+      <c r="AD12" s="44">
         <f t="shared" si="0"/>
-        <v>9.2166666666666668</v>
-      </c>
-      <c r="AD12" s="44">
-        <f>E12-AC12</f>
         <v>-1.2166666666666668</v>
       </c>
       <c r="AE12" s="38"/>
@@ -2180,11 +2180,11 @@
       <c r="AA13" s="76"/>
       <c r="AB13" s="79"/>
       <c r="AC13" s="16">
+        <f t="shared" si="1"/>
+        <v>3.6833333333333331</v>
+      </c>
+      <c r="AD13" s="44">
         <f t="shared" si="0"/>
-        <v>3.6833333333333331</v>
-      </c>
-      <c r="AD13" s="44">
-        <f>E13-AC13</f>
         <v>4.3166666666666664</v>
       </c>
       <c r="AE13" s="38"/>
@@ -2224,11 +2224,11 @@
       <c r="AA14" s="81"/>
       <c r="AB14" s="84"/>
       <c r="AC14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="44">
-        <f>E14-AC14</f>
         <v>0</v>
       </c>
       <c r="AE14" s="38"/>
@@ -2279,11 +2279,11 @@
       <c r="AA15" s="76"/>
       <c r="AB15" s="79"/>
       <c r="AC15" s="16">
+        <f t="shared" si="1"/>
+        <v>6.5666666666666664</v>
+      </c>
+      <c r="AD15" s="44">
         <f t="shared" si="0"/>
-        <v>6.5666666666666664</v>
-      </c>
-      <c r="AD15" s="44">
-        <f>E15-AC15</f>
         <v>-4.5666666666666664</v>
       </c>
       <c r="AE15" s="38"/>
@@ -2336,11 +2336,11 @@
       <c r="AA16" s="76"/>
       <c r="AB16" s="79"/>
       <c r="AC16" s="16">
+        <f t="shared" si="1"/>
+        <v>14.25</v>
+      </c>
+      <c r="AD16" s="44">
         <f t="shared" si="0"/>
-        <v>14.25</v>
-      </c>
-      <c r="AD16" s="44">
-        <f>E16-AC16</f>
         <v>1.75</v>
       </c>
       <c r="AE16" s="38"/>
@@ -2352,7 +2352,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="98" t="s">
         <v>83</v>
       </c>
       <c r="E17" s="18">
@@ -2391,11 +2391,11 @@
       <c r="AA17" s="76"/>
       <c r="AB17" s="79"/>
       <c r="AC17" s="16">
+        <f t="shared" si="1"/>
+        <v>10.816666666666666</v>
+      </c>
+      <c r="AD17" s="44">
         <f t="shared" si="0"/>
-        <v>10.816666666666666</v>
-      </c>
-      <c r="AD17" s="44">
-        <f>E17-AC17</f>
         <v>-10.816666666666666</v>
       </c>
       <c r="AE17" s="38"/>
@@ -2435,11 +2435,11 @@
       <c r="AA18" s="86"/>
       <c r="AB18" s="89"/>
       <c r="AC18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="44">
-        <f>E18-AC18</f>
         <v>0</v>
       </c>
       <c r="AE18" s="38"/>
@@ -2479,11 +2479,11 @@
       <c r="AA19" s="81"/>
       <c r="AB19" s="84"/>
       <c r="AC19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="44">
-        <f>E19-AC19</f>
         <v>0</v>
       </c>
       <c r="AE19" s="38"/>
@@ -2527,11 +2527,11 @@
       <c r="AA20" s="76"/>
       <c r="AB20" s="79"/>
       <c r="AC20" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AD20" s="44">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD20" s="44">
-        <f>E20-AC20</f>
         <v>1</v>
       </c>
       <c r="AE20" s="38"/>
@@ -2571,11 +2571,11 @@
       <c r="AA21" s="81"/>
       <c r="AB21" s="84"/>
       <c r="AC21" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="44">
-        <f>E21-AC21</f>
         <v>0</v>
       </c>
       <c r="AE21" s="38"/>
@@ -2617,11 +2617,11 @@
       <c r="AA22" s="76"/>
       <c r="AB22" s="79"/>
       <c r="AC22" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="44">
-        <f>E22-AC22</f>
         <v>1</v>
       </c>
       <c r="AE22" s="38"/>
@@ -2663,11 +2663,11 @@
       <c r="AA23" s="76"/>
       <c r="AB23" s="79"/>
       <c r="AC23" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="44">
-        <f>E23-AC23</f>
         <v>4</v>
       </c>
       <c r="AE23" s="38"/>
@@ -2712,11 +2712,11 @@
       <c r="AA24" s="76"/>
       <c r="AB24" s="79"/>
       <c r="AC24" s="16">
+        <f t="shared" si="1"/>
+        <v>2.65</v>
+      </c>
+      <c r="AD24" s="44">
         <f t="shared" si="0"/>
-        <v>2.65</v>
-      </c>
-      <c r="AD24" s="44">
-        <f>E24-AC24</f>
         <v>1.35</v>
       </c>
       <c r="AE24" s="38"/>
@@ -2756,11 +2756,11 @@
       <c r="AA25" s="81"/>
       <c r="AB25" s="84"/>
       <c r="AC25" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="44">
-        <f>E25-AC25</f>
         <v>0</v>
       </c>
       <c r="AE25" s="38"/>
@@ -2808,11 +2808,11 @@
       <c r="AA26" s="76"/>
       <c r="AB26" s="79"/>
       <c r="AC26" s="16">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="AD26" s="44">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="AD26" s="44">
-        <f>E26-AC26</f>
         <v>0.25</v>
       </c>
       <c r="AE26" s="38"/>
@@ -2852,11 +2852,11 @@
       <c r="AA27" s="86"/>
       <c r="AB27" s="89"/>
       <c r="AC27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="44">
-        <f>E27-AC27</f>
         <v>0</v>
       </c>
       <c r="AE27" s="38"/>
@@ -2896,11 +2896,11 @@
       <c r="AA28" s="81"/>
       <c r="AB28" s="84"/>
       <c r="AC28" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="44">
-        <f>E28-AC28</f>
         <v>0</v>
       </c>
       <c r="AE28" s="38"/>
@@ -2943,11 +2943,11 @@
       <c r="AA29" s="76"/>
       <c r="AB29" s="79"/>
       <c r="AC29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD29" s="44">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="AD29" s="44">
-        <f>E29-AC29</f>
         <v>3.7</v>
       </c>
       <c r="AE29" s="38"/>
@@ -2987,11 +2987,11 @@
       <c r="AA30" s="81"/>
       <c r="AB30" s="84"/>
       <c r="AC30" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="44">
-        <f>E30-AC30</f>
         <v>0</v>
       </c>
       <c r="AE30" s="38"/>
@@ -3033,11 +3033,11 @@
       <c r="AA31" s="76"/>
       <c r="AB31" s="79"/>
       <c r="AC31" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="44">
-        <f>E31-AC31</f>
         <v>1</v>
       </c>
       <c r="AE31" s="38"/>
@@ -3079,11 +3079,11 @@
       <c r="AA32" s="76"/>
       <c r="AB32" s="79"/>
       <c r="AC32" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="44">
-        <f>E32-AC32</f>
         <v>4</v>
       </c>
       <c r="AE32" s="38"/>
@@ -3125,11 +3125,11 @@
       <c r="AA33" s="76"/>
       <c r="AB33" s="79"/>
       <c r="AC33" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="44">
-        <f>E33-AC33</f>
         <v>8</v>
       </c>
       <c r="AE33" s="38"/>
@@ -3169,11 +3169,11 @@
       <c r="AA34" s="81"/>
       <c r="AB34" s="84"/>
       <c r="AC34" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="44">
-        <f>E34-AC34</f>
         <v>0</v>
       </c>
       <c r="AE34" s="38"/>
@@ -3215,11 +3215,11 @@
       <c r="AA35" s="76"/>
       <c r="AB35" s="79"/>
       <c r="AC35" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="44">
-        <f>E35-AC35</f>
         <v>16</v>
       </c>
       <c r="AE35" s="38"/>
@@ -3261,11 +3261,11 @@
       <c r="AA36" s="76"/>
       <c r="AB36" s="79"/>
       <c r="AC36" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="44">
-        <f>E36-AC36</f>
         <v>8</v>
       </c>
       <c r="AE36" s="38"/>
@@ -3309,11 +3309,11 @@
       <c r="AA37" s="76"/>
       <c r="AB37" s="79"/>
       <c r="AC37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD37" s="44">
-        <f>E37-AC37</f>
+        <f t="shared" ref="AD37:AD68" si="2">E37-AC37</f>
         <v>6</v>
       </c>
       <c r="AE37" s="38"/>
@@ -3353,11 +3353,11 @@
       <c r="AA38" s="86"/>
       <c r="AB38" s="89"/>
       <c r="AC38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD38" s="44">
-        <f>E38-AC38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE38" s="38"/>
@@ -3397,11 +3397,11 @@
       <c r="AA39" s="81"/>
       <c r="AB39" s="84"/>
       <c r="AC39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD39" s="44">
-        <f>E39-AC39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE39" s="38"/>
@@ -3448,11 +3448,11 @@
       <c r="AA40" s="76"/>
       <c r="AB40" s="79"/>
       <c r="AC40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="AD40" s="44">
-        <f>E40-AC40</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE40" s="38"/>
@@ -3502,11 +3502,11 @@
       <c r="AA41" s="76"/>
       <c r="AB41" s="79"/>
       <c r="AC41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0666666666666664</v>
       </c>
       <c r="AD41" s="44">
-        <f>E41-AC41</f>
+        <f t="shared" si="2"/>
         <v>9.9333333333333336</v>
       </c>
       <c r="AE41" s="38"/>
@@ -3546,11 +3546,11 @@
       <c r="AA42" s="81"/>
       <c r="AB42" s="84"/>
       <c r="AC42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD42" s="44">
-        <f>E42-AC42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE42" s="38"/>
@@ -3594,11 +3594,11 @@
       <c r="AA43" s="76"/>
       <c r="AB43" s="79"/>
       <c r="AC43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD43" s="44">
-        <f>E43-AC43</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE43" s="38"/>
@@ -3645,11 +3645,11 @@
       <c r="AA44" s="76"/>
       <c r="AB44" s="79"/>
       <c r="AC44" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3</v>
       </c>
       <c r="AD44" s="44">
-        <f>E44-AC44</f>
+        <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
       <c r="AE44" s="38"/>
@@ -3693,11 +3693,11 @@
       <c r="AA45" s="76"/>
       <c r="AB45" s="79"/>
       <c r="AC45" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="AD45" s="44">
-        <f>E45-AC45</f>
+        <f t="shared" si="2"/>
         <v>7.7</v>
       </c>
       <c r="AE45" s="38"/>
@@ -3709,7 +3709,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="99" t="s">
+      <c r="D46" s="97" t="s">
         <v>82</v>
       </c>
       <c r="E46" s="18">
@@ -3754,11 +3754,11 @@
       <c r="AA46" s="76"/>
       <c r="AB46" s="79"/>
       <c r="AC46" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="AD46" s="44">
-        <f>E46-AC46</f>
+        <f t="shared" si="2"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="AE46" s="38"/>
@@ -3798,11 +3798,11 @@
       <c r="AA47" s="81"/>
       <c r="AB47" s="84"/>
       <c r="AC47" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD47" s="44">
-        <f>E47-AC47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE47" s="38"/>
@@ -3814,7 +3814,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="11"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="99" t="s">
+      <c r="D48" s="97" t="s">
         <v>73</v>
       </c>
       <c r="E48" s="18">
@@ -3850,11 +3850,11 @@
       <c r="AA48" s="76"/>
       <c r="AB48" s="79"/>
       <c r="AC48" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.333333333333332</v>
       </c>
       <c r="AD48" s="44">
-        <f>E48-AC48</f>
+        <f t="shared" si="2"/>
         <v>-13.333333333333332</v>
       </c>
       <c r="AE48" s="38"/>
@@ -3917,11 +3917,11 @@
       <c r="AA49" s="76"/>
       <c r="AB49" s="79"/>
       <c r="AC49" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.216666666666665</v>
       </c>
       <c r="AD49" s="44">
-        <f>E49-AC49</f>
+        <f t="shared" si="2"/>
         <v>8.783333333333335</v>
       </c>
       <c r="AE49" s="38"/>
@@ -3977,11 +3977,11 @@
       <c r="AA50" s="76"/>
       <c r="AB50" s="79"/>
       <c r="AC50" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.116666666666667</v>
       </c>
       <c r="AD50" s="44">
-        <f>E50-AC50</f>
+        <f t="shared" si="2"/>
         <v>27.883333333333333</v>
       </c>
       <c r="AE50" s="38"/>
@@ -4023,11 +4023,11 @@
       <c r="AA51" s="76"/>
       <c r="AB51" s="79"/>
       <c r="AC51" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD51" s="44">
-        <f>E51-AC51</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="AE51" s="38"/>
@@ -4067,11 +4067,11 @@
       <c r="AA52" s="86"/>
       <c r="AB52" s="89"/>
       <c r="AC52" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD52" s="44">
-        <f>E52-AC52</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE52" s="38"/>
@@ -4111,11 +4111,11 @@
       <c r="AA53" s="81"/>
       <c r="AB53" s="84"/>
       <c r="AC53" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD53" s="44">
-        <f>E53-AC53</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE53" s="38"/>
@@ -4157,11 +4157,11 @@
       <c r="AA54" s="76"/>
       <c r="AB54" s="79"/>
       <c r="AC54" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD54" s="44">
-        <f>E54-AC54</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AE54" s="38"/>
@@ -4201,11 +4201,11 @@
       <c r="AA55" s="81"/>
       <c r="AB55" s="84"/>
       <c r="AC55" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD55" s="44">
-        <f>E55-AC55</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE55" s="38"/>
@@ -4247,11 +4247,11 @@
       <c r="AA56" s="76"/>
       <c r="AB56" s="79"/>
       <c r="AC56" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD56" s="44">
-        <f>E56-AC56</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE56" s="38"/>
@@ -4293,11 +4293,11 @@
       <c r="AA57" s="76"/>
       <c r="AB57" s="79"/>
       <c r="AC57" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD57" s="44">
-        <f>E57-AC57</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AE57" s="38"/>
@@ -4339,11 +4339,11 @@
       <c r="AA58" s="76"/>
       <c r="AB58" s="79"/>
       <c r="AC58" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD58" s="44">
-        <f>E58-AC58</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AE58" s="38"/>
@@ -4383,11 +4383,11 @@
       <c r="AA59" s="81"/>
       <c r="AB59" s="84"/>
       <c r="AC59" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD59" s="44">
-        <f>E59-AC59</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE59" s="38"/>
@@ -4429,11 +4429,11 @@
       <c r="AA60" s="76"/>
       <c r="AB60" s="79"/>
       <c r="AC60" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD60" s="44">
-        <f>E60-AC60</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AE60" s="38"/>
@@ -4473,11 +4473,11 @@
       <c r="AA61" s="86"/>
       <c r="AB61" s="89"/>
       <c r="AC61" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD61" s="44">
-        <f>E61-AC61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE61" s="38"/>
@@ -4517,11 +4517,11 @@
       <c r="AA62" s="81"/>
       <c r="AB62" s="84"/>
       <c r="AC62" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD62" s="44">
-        <f>E62-AC62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE62" s="38"/>
@@ -4563,11 +4563,11 @@
       <c r="AA63" s="76"/>
       <c r="AB63" s="79"/>
       <c r="AC63" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD63" s="44">
-        <f>E63-AC63</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE63" s="38"/>
@@ -4612,11 +4612,11 @@
       <c r="AA64" s="76"/>
       <c r="AB64" s="79"/>
       <c r="AC64" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="AD64" s="44">
-        <f>E64-AC64</f>
+        <f t="shared" si="2"/>
         <v>-0.58333333333333337</v>
       </c>
       <c r="AE64" s="38"/>
@@ -4656,11 +4656,11 @@
       <c r="AA65" s="81"/>
       <c r="AB65" s="84"/>
       <c r="AC65" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD65" s="44">
-        <f>E65-AC65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE65" s="38"/>
@@ -4702,11 +4702,11 @@
       <c r="AA66" s="76"/>
       <c r="AB66" s="79"/>
       <c r="AC66" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD66" s="44">
-        <f>E66-AC66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE66" s="38"/>
@@ -4748,11 +4748,11 @@
       <c r="AA67" s="76"/>
       <c r="AB67" s="79"/>
       <c r="AC67" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD67" s="44">
-        <f>E67-AC67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE67" s="38"/>
@@ -4794,11 +4794,11 @@
       <c r="AA68" s="76"/>
       <c r="AB68" s="79"/>
       <c r="AC68" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD68" s="44">
-        <f>E68-AC68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE68" s="38"/>
@@ -4810,7 +4810,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="99" t="s">
+      <c r="D69" s="97" t="s">
         <v>88</v>
       </c>
       <c r="E69" s="18">
@@ -4840,11 +4840,11 @@
       <c r="AA69" s="76"/>
       <c r="AB69" s="79"/>
       <c r="AC69" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD69" s="44">
-        <f t="shared" ref="AD69:AD70" si="1">E69-AC69</f>
+        <f t="shared" ref="AD69:AD70" si="3">E69-AC69</f>
         <v>0</v>
       </c>
       <c r="AE69" s="38"/>
@@ -4856,7 +4856,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="99" t="s">
+      <c r="D70" s="97" t="s">
         <v>89</v>
       </c>
       <c r="E70" s="18">
@@ -4886,11 +4886,11 @@
       <c r="AA70" s="76"/>
       <c r="AB70" s="79"/>
       <c r="AC70" s="16">
-        <f t="shared" ref="AC70:AC87" si="2">SUM(F70:AB70)</f>
+        <f t="shared" ref="AC70:AC87" si="4">SUM(F70:AB70)</f>
         <v>0</v>
       </c>
       <c r="AD70" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE70" s="38"/>
@@ -4930,11 +4930,11 @@
       <c r="AA71" s="81"/>
       <c r="AB71" s="84"/>
       <c r="AC71" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD71" s="44">
-        <f>E71-AC71</f>
+        <f t="shared" ref="AD71:AD88" si="5">E71-AC71</f>
         <v>0</v>
       </c>
       <c r="AE71" s="38"/>
@@ -4976,11 +4976,11 @@
       <c r="AA72" s="76"/>
       <c r="AB72" s="79"/>
       <c r="AC72" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD72" s="44">
-        <f>E72-AC72</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AE72" s="38"/>
@@ -5024,11 +5024,11 @@
       <c r="AA73" s="76"/>
       <c r="AB73" s="79"/>
       <c r="AC73" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD73" s="44">
-        <f>E73-AC73</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AE73" s="38"/>
@@ -5070,11 +5070,11 @@
       <c r="AA74" s="76"/>
       <c r="AB74" s="79"/>
       <c r="AC74" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD74" s="44">
-        <f>E74-AC74</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AE74" s="38"/>
@@ -5086,7 +5086,7 @@
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="98" t="s">
+      <c r="D75" s="96" t="s">
         <v>86</v>
       </c>
       <c r="E75" s="18">
@@ -5116,11 +5116,11 @@
       <c r="AA75" s="76"/>
       <c r="AB75" s="79"/>
       <c r="AC75" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD75" s="44">
-        <f>E75-AC75</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE75" s="38"/>
@@ -5160,11 +5160,11 @@
       <c r="AA76" s="86"/>
       <c r="AB76" s="89"/>
       <c r="AC76" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD76" s="44">
-        <f>E76-AC76</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE76" s="38"/>
@@ -5206,11 +5206,11 @@
       <c r="AA77" s="76"/>
       <c r="AB77" s="79"/>
       <c r="AC77" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD77" s="44">
-        <f>E77-AC77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE77" s="38"/>
@@ -5252,11 +5252,11 @@
       <c r="AA78" s="76"/>
       <c r="AB78" s="79"/>
       <c r="AC78" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD78" s="44">
-        <f>E78-AC78</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE78" s="38"/>
@@ -5298,11 +5298,11 @@
       <c r="AA79" s="76"/>
       <c r="AB79" s="79"/>
       <c r="AC79" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD79" s="44">
-        <f>E79-AC79</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE79" s="38"/>
@@ -5340,11 +5340,11 @@
       <c r="AA80" s="76"/>
       <c r="AB80" s="79"/>
       <c r="AC80" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD80" s="44">
-        <f>E80-AC80</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE80" s="38"/>
@@ -5384,11 +5384,11 @@
       <c r="AA81" s="86"/>
       <c r="AB81" s="89"/>
       <c r="AC81" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD81" s="44">
-        <f>E81-AC81</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE81" s="38"/>
@@ -5428,11 +5428,11 @@
       <c r="AA82" s="86"/>
       <c r="AB82" s="89"/>
       <c r="AC82" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD82" s="44">
-        <f>E82-AC82</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE82" s="38"/>
@@ -5477,11 +5477,11 @@
       <c r="AA83" s="76"/>
       <c r="AB83" s="79"/>
       <c r="AC83" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0166666666666666</v>
       </c>
       <c r="AD83" s="44">
-        <f>E83-AC83</f>
+        <f t="shared" si="5"/>
         <v>2.9833333333333334</v>
       </c>
       <c r="AE83" s="38"/>
@@ -5552,11 +5552,11 @@
       <c r="AA84" s="76"/>
       <c r="AB84" s="79"/>
       <c r="AC84" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="AD84" s="44">
-        <f>E84-AC84</f>
+        <f t="shared" si="5"/>
         <v>-3.9999999999999991</v>
       </c>
       <c r="AE84" s="38"/>
@@ -5608,11 +5608,11 @@
       <c r="AA85" s="76"/>
       <c r="AB85" s="79"/>
       <c r="AC85" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.916666666666667</v>
       </c>
       <c r="AD85" s="44">
-        <f>E85-AC85</f>
+        <f t="shared" si="5"/>
         <v>-1.916666666666667</v>
       </c>
       <c r="AE85" s="38"/>
@@ -5690,11 +5690,11 @@
       <c r="AA86" s="76"/>
       <c r="AB86" s="79"/>
       <c r="AC86" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5166666666666657</v>
       </c>
       <c r="AD86" s="44">
-        <f>E86-AC86</f>
+        <f t="shared" si="5"/>
         <v>8.4833333333333343</v>
       </c>
       <c r="AE86" s="38"/>
@@ -5744,11 +5744,11 @@
       <c r="AA87" s="92"/>
       <c r="AB87" s="95"/>
       <c r="AC87" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0166666666666666</v>
       </c>
       <c r="AD87" s="44">
-        <f>E87-AC87</f>
+        <f t="shared" si="5"/>
         <v>1.9833333333333334</v>
       </c>
       <c r="AE87" s="38"/>
@@ -5764,107 +5764,107 @@
       <c r="C88" s="28"/>
       <c r="D88" s="29"/>
       <c r="E88" s="30">
-        <f>SUM(E3:E87)</f>
+        <f t="shared" ref="E88:AC88" si="6">SUM(E3:E87)</f>
         <v>449</v>
       </c>
       <c r="F88" s="30">
-        <f>SUM(F3:F87)</f>
+        <f t="shared" si="6"/>
         <v>3.083333333333333</v>
       </c>
       <c r="G88" s="31">
-        <f>SUM(G3:G87)</f>
+        <f t="shared" si="6"/>
         <v>7.25</v>
       </c>
       <c r="H88" s="31">
-        <f>SUM(H3:H87)</f>
+        <f t="shared" si="6"/>
         <v>10.466666666666667</v>
       </c>
       <c r="I88" s="31">
-        <f>SUM(I3:I87)</f>
+        <f t="shared" si="6"/>
         <v>5.666666666666667</v>
       </c>
       <c r="J88" s="31">
-        <f>SUM(J3:J87)</f>
+        <f t="shared" si="6"/>
         <v>7.5833333333333339</v>
       </c>
       <c r="K88" s="31">
-        <f>SUM(K3:K87)</f>
+        <f t="shared" si="6"/>
         <v>16.133333333333336</v>
       </c>
       <c r="L88" s="31">
-        <f>SUM(L3:L87)</f>
+        <f t="shared" si="6"/>
         <v>16.916666666666664</v>
       </c>
       <c r="M88" s="35">
-        <f>SUM(M3:M87)</f>
+        <f t="shared" si="6"/>
         <v>29.933333333333334</v>
       </c>
       <c r="N88" s="32">
-        <f>SUM(N3:N87)</f>
+        <f t="shared" si="6"/>
         <v>15.183333333333334</v>
       </c>
       <c r="O88" s="31">
-        <f>SUM(O3:O87)</f>
+        <f t="shared" si="6"/>
         <v>4.2833333333333341</v>
       </c>
       <c r="P88" s="31">
-        <f>SUM(P3:P87)</f>
+        <f t="shared" si="6"/>
         <v>9.9666666666666668</v>
       </c>
       <c r="Q88" s="31">
-        <f>SUM(Q3:Q87)</f>
+        <f t="shared" si="6"/>
         <v>14.666666666666668</v>
       </c>
       <c r="R88" s="31">
-        <f>SUM(R3:R87)</f>
+        <f t="shared" si="6"/>
         <v>14.283333333333333</v>
       </c>
       <c r="S88" s="31">
-        <f>SUM(S3:S87)</f>
+        <f t="shared" si="6"/>
         <v>6.4333333333333336</v>
       </c>
       <c r="T88" s="31">
-        <f>SUM(T3:T87)</f>
+        <f t="shared" si="6"/>
         <v>17.383333333333333</v>
       </c>
       <c r="U88" s="31">
-        <f>SUM(U3:U87)</f>
+        <f t="shared" si="6"/>
         <v>11.55</v>
       </c>
       <c r="V88" s="35">
-        <f>SUM(V3:V87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W88" s="32">
-        <f>SUM(W3:W87)</f>
+        <f t="shared" si="6"/>
         <v>8.2666666666666675</v>
       </c>
       <c r="X88" s="31">
-        <f>SUM(X3:X87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y88" s="31">
-        <f>SUM(Y3:Y87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z88" s="31">
-        <f>SUM(Z3:Z87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA88" s="31">
-        <f>SUM(AA3:AA87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB88" s="42">
-        <f>SUM(AB3:AB87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC88" s="32">
-        <f>SUM(AC3:AC87)</f>
+        <f t="shared" si="6"/>
         <v>199.04999999999998</v>
       </c>
       <c r="AD88" s="45">
-        <f>E88-AC88</f>
+        <f t="shared" si="5"/>
         <v>249.95000000000002</v>
       </c>
       <c r="AE88" s="39"/>
@@ -5987,20 +5987,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6021,18 +6021,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planification/Planning.xlsx
+++ b/Planification/Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c31a1cfc8e0b17/HEIG-VD/Travail de bachelor/AutonomousRcCar/Planification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DABABBEC-00E4-4FDE-A923-45B331D1100F}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{519D9C75-689E-42C0-B7C9-95F68FC84A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9AAF4E2-F0AE-42E2-8EA7-BDEDF8394A4D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tâches" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tâches!$A$2:$AA$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tâches!$A$2:$AA$95</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Description</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>Lister et choisir technologies de communication sans fil</t>
-  </si>
-  <si>
-    <t>Guidage voiture manuel depuis ordinateur de bord</t>
   </si>
   <si>
     <t>Tester communication &amp; guidage</t>
@@ -302,9 +299,6 @@
     <t>Préparation aux séances</t>
   </si>
   <si>
-    <t>Séance de suivi du projet</t>
-  </si>
-  <si>
     <t>Communication Voiture — PC</t>
   </si>
   <si>
@@ -380,10 +374,19 @@
     <t>Affiches / Préparation présentations</t>
   </si>
   <si>
-    <t>Design mécanique des feux / panneaux</t>
-  </si>
-  <si>
-    <t>Design électronique des feux / panneaux</t>
+    <t>Guidage voiture depuis ordinateur de bord</t>
+  </si>
+  <si>
+    <t>Séance de suivi du projet / Présentations</t>
+  </si>
+  <si>
+    <t>Design et conception électronique des feux</t>
+  </si>
+  <si>
+    <t>Design mécanique et impression des feux / panneaux</t>
+  </si>
+  <si>
+    <t>Rapport</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <numFmt numFmtId="164" formatCode="0.0_ ;[Red]\-0.0\ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,6 +452,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -476,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -906,11 +916,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1142,6 +1174,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,6 +1213,948 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tâches!$F$89:$AA$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.133333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.183333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2833333333333341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.566666666666663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.81666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5178-4BD1-AF39-7541D2CE7B78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="664347208"/>
+        <c:axId val="664347864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664347208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664347864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664347864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664347208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>534184</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>3137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>60735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DFE87-5C3B-4FC7-86DB-5D3553B4358C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,27 +2481,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD88" sqref="AD88"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF96" sqref="AF96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="25" width="4.28515625" style="8" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" style="9" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="2" width="4.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="25" width="4.33203125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="4.33203125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="4.33203125" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="38.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F1" s="14">
         <v>43878</v>
       </c>
@@ -1595,7 +2578,7 @@
       <c r="AG1" s="33"/>
       <c r="AH1" s="33"/>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
@@ -1654,25 +2637,25 @@
         <v>21</v>
       </c>
       <c r="V2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AB2" s="41" t="s">
         <v>68</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="41" t="s">
-        <v>70</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>1</v>
@@ -1685,7 +2668,7 @@
       <c r="AG2" s="37"/>
       <c r="AH2" s="37"/>
     </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>35</v>
       </c>
@@ -1723,7 +2706,7 @@
       <c r="AG3" s="38"/>
       <c r="AH3" s="38"/>
     </row>
-    <row r="4" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="54" t="s">
         <v>31</v>
@@ -1761,12 +2744,12 @@
       <c r="AG4" s="38"/>
       <c r="AH4" s="38"/>
     </row>
-    <row r="5" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="18">
         <v>8</v>
@@ -1810,7 +2793,7 @@
       <c r="AG5" s="38"/>
       <c r="AH5" s="38"/>
     </row>
-    <row r="6" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1859,12 +2842,12 @@
       <c r="AG6" s="38"/>
       <c r="AH6" s="38"/>
     </row>
-    <row r="7" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="18">
         <v>4</v>
@@ -1907,7 +2890,7 @@
       <c r="AG7" s="38"/>
       <c r="AH7" s="38"/>
     </row>
-    <row r="8" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="54" t="s">
         <v>23</v>
@@ -1951,12 +2934,12 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="38"/>
     </row>
-    <row r="9" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="18">
         <v>4</v>
@@ -2000,7 +2983,7 @@
       <c r="AG9" s="38"/>
       <c r="AH9" s="38"/>
     </row>
-    <row r="10" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -2046,7 +3029,7 @@
       <c r="AG10" s="38"/>
       <c r="AH10" s="38"/>
     </row>
-    <row r="11" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -2092,7 +3075,7 @@
       <c r="AG11" s="38"/>
       <c r="AH11" s="38"/>
     </row>
-    <row r="12" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -2143,7 +3126,7 @@
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
     </row>
-    <row r="13" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -2175,24 +3158,27 @@
       <c r="V13" s="77"/>
       <c r="W13" s="78"/>
       <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
+      <c r="Y13" s="76">
+        <f>(85)/60</f>
+        <v>1.4166666666666667</v>
+      </c>
       <c r="Z13" s="76"/>
       <c r="AA13" s="76"/>
       <c r="AB13" s="79"/>
       <c r="AC13" s="16">
         <f t="shared" si="1"/>
-        <v>3.6833333333333331</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AD13" s="44">
         <f t="shared" si="0"/>
-        <v>4.3166666666666664</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
       <c r="AH13" s="38"/>
     </row>
-    <row r="14" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="67" t="s">
         <v>32</v>
@@ -2236,12 +3222,12 @@
       <c r="AG14" s="38"/>
       <c r="AH14" s="38"/>
     </row>
-    <row r="15" spans="1:34" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="18">
         <v>2</v>
@@ -2291,12 +3277,12 @@
       <c r="AG15" s="38"/>
       <c r="AH15" s="38"/>
     </row>
-    <row r="16" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="20" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E16" s="18">
         <v>16</v>
@@ -2329,31 +3315,37 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
       <c r="V16" s="77"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="76"/>
+      <c r="W16" s="78">
+        <f>(48+95+50+39+25+8)/60</f>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="X16" s="76">
+        <f>(41+4+132+27+5*60+13+14)/60</f>
+        <v>8.85</v>
+      </c>
       <c r="Y16" s="76"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="79"/>
       <c r="AC16" s="16">
         <f t="shared" si="1"/>
-        <v>14.25</v>
+        <v>27.516666666666666</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>-11.516666666666666</v>
       </c>
       <c r="AE16" s="38"/>
       <c r="AF16" s="38"/>
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
     </row>
-    <row r="17" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
@@ -2385,27 +3377,36 @@
       <c r="U17" s="76"/>
       <c r="V17" s="77"/>
       <c r="W17" s="78"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
+      <c r="X17" s="76">
+        <f>(30+65+6+50+80+47)/60</f>
+        <v>4.6333333333333337</v>
+      </c>
+      <c r="Y17" s="76">
+        <f>(3*60+43)/60</f>
+        <v>3.7166666666666668</v>
+      </c>
+      <c r="Z17" s="76">
+        <f>(13*60+30)/60</f>
+        <v>13.5</v>
+      </c>
       <c r="AA17" s="76"/>
       <c r="AB17" s="79"/>
       <c r="AC17" s="16">
         <f t="shared" si="1"/>
-        <v>10.816666666666666</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="AD17" s="44">
         <f t="shared" si="0"/>
-        <v>-10.816666666666666</v>
+        <v>-32.666666666666664</v>
       </c>
       <c r="AE17" s="38"/>
       <c r="AF17" s="38"/>
       <c r="AG17" s="38"/>
       <c r="AH17" s="38"/>
     </row>
-    <row r="18" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -2447,7 +3448,7 @@
       <c r="AG18" s="38"/>
       <c r="AH18" s="38"/>
     </row>
-    <row r="19" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="54" t="s">
         <v>31</v>
@@ -2491,12 +3492,12 @@
       <c r="AG19" s="38"/>
       <c r="AH19" s="38"/>
     </row>
-    <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="18">
         <v>4</v>
@@ -2539,7 +3540,7 @@
       <c r="AG20" s="38"/>
       <c r="AH20" s="38"/>
     </row>
-    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="54" t="s">
         <v>23</v>
@@ -2583,12 +3584,12 @@
       <c r="AG21" s="38"/>
       <c r="AH21" s="38"/>
     </row>
-    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
@@ -2629,7 +3630,7 @@
       <c r="AG22" s="38"/>
       <c r="AH22" s="38"/>
     </row>
-    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2675,7 +3676,7 @@
       <c r="AG23" s="38"/>
       <c r="AH23" s="38"/>
     </row>
-    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2724,7 +3725,7 @@
       <c r="AG24" s="38"/>
       <c r="AH24" s="38"/>
     </row>
-    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="54" t="s">
         <v>32</v>
@@ -2768,12 +3769,12 @@
       <c r="AG25" s="38"/>
       <c r="AH25" s="38"/>
     </row>
-    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="18">
         <v>4</v>
@@ -2820,9 +3821,9 @@
       <c r="AG26" s="38"/>
       <c r="AH26" s="38"/>
     </row>
-    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
@@ -2864,7 +3865,7 @@
       <c r="AG27" s="38"/>
       <c r="AH27" s="38"/>
     </row>
-    <row r="28" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="54" t="s">
         <v>31</v>
@@ -2908,7 +3909,7 @@
       <c r="AG28" s="38"/>
       <c r="AH28" s="38"/>
     </row>
-    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -2955,7 +3956,7 @@
       <c r="AG29" s="38"/>
       <c r="AH29" s="38"/>
     </row>
-    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="54" t="s">
         <v>23</v>
@@ -2999,12 +4000,12 @@
       <c r="AG30" s="38"/>
       <c r="AH30" s="38"/>
     </row>
-    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="18">
         <v>1</v>
@@ -3045,12 +4046,12 @@
       <c r="AG31" s="38"/>
       <c r="AH31" s="38"/>
     </row>
-    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="18">
         <v>4</v>
@@ -3091,12 +4092,12 @@
       <c r="AG32" s="38"/>
       <c r="AH32" s="38"/>
     </row>
-    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="18">
         <v>8</v>
@@ -3137,7 +4138,7 @@
       <c r="AG33" s="38"/>
       <c r="AH33" s="38"/>
     </row>
-    <row r="34" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="54" t="s">
         <v>32</v>
@@ -3181,7 +4182,7 @@
       <c r="AG34" s="38"/>
       <c r="AH34" s="38"/>
     </row>
-    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -3227,12 +4228,12 @@
       <c r="AG35" s="38"/>
       <c r="AH35" s="38"/>
     </row>
-    <row r="36" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
       <c r="D36" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="18">
         <v>8</v>
@@ -3273,12 +4274,12 @@
       <c r="AG36" s="38"/>
       <c r="AH36" s="38"/>
     </row>
-    <row r="37" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="18">
         <v>8</v>
@@ -3321,9 +4322,9 @@
       <c r="AG37" s="38"/>
       <c r="AH37" s="38"/>
     </row>
-    <row r="38" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
@@ -3365,7 +4366,7 @@
       <c r="AG38" s="38"/>
       <c r="AH38" s="38"/>
     </row>
-    <row r="39" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="69" t="s">
         <v>31</v>
@@ -3409,12 +4410,12 @@
       <c r="AG39" s="38"/>
       <c r="AH39" s="38"/>
     </row>
-    <row r="40" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="18">
         <v>4</v>
@@ -3460,12 +4461,12 @@
       <c r="AG40" s="38"/>
       <c r="AH40" s="38"/>
     </row>
-    <row r="41" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="12"/>
       <c r="C41" s="2"/>
       <c r="D41" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="18">
         <v>16</v>
@@ -3514,7 +4515,7 @@
       <c r="AG41" s="38"/>
       <c r="AH41" s="38"/>
     </row>
-    <row r="42" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="69" t="s">
         <v>23</v>
@@ -3558,7 +4559,7 @@
       <c r="AG42" s="38"/>
       <c r="AH42" s="38"/>
     </row>
-    <row r="43" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
       <c r="C43" s="2"/>
@@ -3606,12 +4607,12 @@
       <c r="AG43" s="38"/>
       <c r="AH43" s="38"/>
     </row>
-    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="11"/>
       <c r="C44" s="2"/>
       <c r="D44" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E44" s="18">
         <v>8</v>
@@ -3657,12 +4658,12 @@
       <c r="AG44" s="38"/>
       <c r="AH44" s="38"/>
     </row>
-    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="11"/>
       <c r="C45" s="2"/>
       <c r="D45" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" s="18">
         <v>8</v>
@@ -3705,12 +4706,12 @@
       <c r="AG45" s="38"/>
       <c r="AH45" s="38"/>
     </row>
-    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="11"/>
       <c r="C46" s="2"/>
       <c r="D46" s="97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" s="18">
         <v>0</v>
@@ -3745,8 +4746,8 @@
       <c r="U46" s="76"/>
       <c r="V46" s="77"/>
       <c r="W46" s="78">
-        <f>38/60</f>
-        <v>0.6333333333333333</v>
+        <f>(38+60)/60</f>
+        <v>1.6333333333333333</v>
       </c>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
@@ -3755,18 +4756,18 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="16">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" si="2"/>
-        <v>-4.0999999999999996</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
       <c r="AG46" s="38"/>
       <c r="AH46" s="38"/>
     </row>
-    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="69" t="s">
         <v>32</v>
@@ -3810,12 +4811,12 @@
       <c r="AG47" s="38"/>
       <c r="AH47" s="38"/>
     </row>
-    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="11"/>
       <c r="C48" s="2"/>
       <c r="D48" s="97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="18">
         <v>0</v>
@@ -3862,12 +4863,12 @@
       <c r="AG48" s="38"/>
       <c r="AH48" s="38"/>
     </row>
-    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
       <c r="D49" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" s="18">
         <v>40</v>
@@ -3929,12 +4930,12 @@
       <c r="AG49" s="38"/>
       <c r="AH49" s="38"/>
     </row>
-    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="18">
         <v>70</v>
@@ -3968,8 +4969,8 @@
       </c>
       <c r="V50" s="77"/>
       <c r="W50" s="78">
-        <f>(41+104)/60</f>
-        <v>2.4166666666666665</v>
+        <f>(41+104+14+51+79+113)/60</f>
+        <v>6.7</v>
       </c>
       <c r="X50" s="76"/>
       <c r="Y50" s="76"/>
@@ -3978,23 +4979,23 @@
       <c r="AB50" s="79"/>
       <c r="AC50" s="16">
         <f t="shared" si="1"/>
-        <v>42.116666666666667</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="AD50" s="44">
         <f t="shared" si="2"/>
-        <v>27.883333333333333</v>
+        <v>23.599999999999994</v>
       </c>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
       <c r="AG50" s="38"/>
       <c r="AH50" s="38"/>
     </row>
-    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" s="18">
         <v>60</v>
@@ -4035,9 +5036,9 @@
       <c r="AG51" s="38"/>
       <c r="AH51" s="38"/>
     </row>
-    <row r="52" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
@@ -4079,7 +5080,7 @@
       <c r="AG52" s="38"/>
       <c r="AH52" s="38"/>
     </row>
-    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="67" t="s">
         <v>31</v>
@@ -4123,12 +5124,12 @@
       <c r="AG53" s="38"/>
       <c r="AH53" s="38"/>
     </row>
-    <row r="54" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" s="18">
         <v>4</v>
@@ -4169,7 +5170,7 @@
       <c r="AG54" s="38"/>
       <c r="AH54" s="38"/>
     </row>
-    <row r="55" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="67" t="s">
         <v>23</v>
@@ -4213,7 +5214,7 @@
       <c r="AG55" s="38"/>
       <c r="AH55" s="38"/>
     </row>
-    <row r="56" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -4259,7 +5260,7 @@
       <c r="AG56" s="38"/>
       <c r="AH56" s="38"/>
     </row>
-    <row r="57" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -4305,12 +5306,12 @@
       <c r="AG57" s="38"/>
       <c r="AH57" s="38"/>
     </row>
-    <row r="58" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E58" s="18">
         <v>4</v>
@@ -4335,23 +5336,26 @@
       <c r="W58" s="78"/>
       <c r="X58" s="76"/>
       <c r="Y58" s="76"/>
-      <c r="Z58" s="76"/>
+      <c r="Z58" s="76">
+        <f>(3*60+22)/60</f>
+        <v>3.3666666666666667</v>
+      </c>
       <c r="AA58" s="76"/>
       <c r="AB58" s="79"/>
       <c r="AC58" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="AD58" s="44">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AE58" s="38"/>
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
       <c r="AH58" s="38"/>
     </row>
-    <row r="59" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="67" t="s">
         <v>32</v>
@@ -4395,12 +5399,12 @@
       <c r="AG59" s="38"/>
       <c r="AH59" s="38"/>
     </row>
-    <row r="60" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="18">
         <v>20</v>
@@ -4425,25 +5429,31 @@
       <c r="W60" s="78"/>
       <c r="X60" s="76"/>
       <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
+      <c r="Z60" s="76">
+        <f>(4*60+32)/60</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AA60" s="76">
+        <f>(3*60+33)/60</f>
+        <v>3.55</v>
+      </c>
       <c r="AB60" s="79"/>
       <c r="AC60" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0833333333333321</v>
       </c>
       <c r="AD60" s="44">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>11.916666666666668</v>
       </c>
       <c r="AE60" s="38"/>
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
       <c r="AH60" s="38"/>
     </row>
-    <row r="61" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="72"/>
       <c r="C61" s="72"/>
@@ -4485,7 +5495,7 @@
       <c r="AG61" s="38"/>
       <c r="AH61" s="38"/>
     </row>
-    <row r="62" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="67" t="s">
         <v>31</v>
@@ -4529,12 +5539,12 @@
       <c r="AG62" s="38"/>
       <c r="AH62" s="38"/>
     </row>
-    <row r="63" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="18">
         <v>1</v>
@@ -4575,12 +5585,12 @@
       <c r="AG63" s="38"/>
       <c r="AH63" s="38"/>
     </row>
-    <row r="64" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E64" s="18">
         <v>0</v>
@@ -4624,7 +5634,7 @@
       <c r="AG64" s="38"/>
       <c r="AH64" s="38"/>
     </row>
-    <row r="65" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="67" t="s">
         <v>23</v>
@@ -4668,7 +5678,7 @@
       <c r="AG65" s="38"/>
       <c r="AH65" s="38"/>
     </row>
-    <row r="66" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -4714,7 +5724,7 @@
       <c r="AG66" s="38"/>
       <c r="AH66" s="38"/>
     </row>
-    <row r="67" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -4760,12 +5770,12 @@
       <c r="AG67" s="38"/>
       <c r="AH67" s="38"/>
     </row>
-    <row r="68" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E68" s="18">
         <v>0</v>
@@ -4806,12 +5816,12 @@
       <c r="AG68" s="38"/>
       <c r="AH68" s="38"/>
     </row>
-    <row r="69" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="18">
         <v>0</v>
@@ -4835,29 +5845,32 @@
       <c r="V69" s="77"/>
       <c r="W69" s="78"/>
       <c r="X69" s="76"/>
-      <c r="Y69" s="76"/>
+      <c r="Y69" s="76">
+        <f>(8*60+33+114)/60</f>
+        <v>10.45</v>
+      </c>
       <c r="Z69" s="76"/>
       <c r="AA69" s="76"/>
       <c r="AB69" s="79"/>
       <c r="AC69" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.45</v>
       </c>
       <c r="AD69" s="44">
         <f t="shared" ref="AD69:AD70" si="3">E69-AC69</f>
-        <v>0</v>
+        <v>-10.45</v>
       </c>
       <c r="AE69" s="38"/>
       <c r="AF69" s="38"/>
       <c r="AG69" s="38"/>
       <c r="AH69" s="38"/>
     </row>
-    <row r="70" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E70" s="18">
         <v>0</v>
@@ -4881,24 +5894,27 @@
       <c r="V70" s="77"/>
       <c r="W70" s="78"/>
       <c r="X70" s="76"/>
-      <c r="Y70" s="76"/>
+      <c r="Y70" s="76">
+        <f>(6*60+45)/60</f>
+        <v>6.75</v>
+      </c>
       <c r="Z70" s="76"/>
       <c r="AA70" s="76"/>
       <c r="AB70" s="79"/>
       <c r="AC70" s="16">
-        <f t="shared" ref="AC70:AC87" si="4">SUM(F70:AB70)</f>
-        <v>0</v>
+        <f t="shared" ref="AC70:AC88" si="4">SUM(F70:AB70)</f>
+        <v>6.75</v>
       </c>
       <c r="AD70" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.75</v>
       </c>
       <c r="AE70" s="38"/>
       <c r="AF70" s="38"/>
       <c r="AG70" s="38"/>
       <c r="AH70" s="38"/>
     </row>
-    <row r="71" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="67" t="s">
         <v>32</v>
@@ -4934,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="AD71" s="44">
-        <f t="shared" ref="AD71:AD88" si="5">E71-AC71</f>
+        <f t="shared" ref="AD71:AD89" si="5">E71-AC71</f>
         <v>0</v>
       </c>
       <c r="AE71" s="38"/>
@@ -4942,12 +5958,12 @@
       <c r="AG71" s="38"/>
       <c r="AH71" s="38"/>
     </row>
-    <row r="72" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E72" s="18">
         <v>8</v>
@@ -4988,12 +6004,12 @@
       <c r="AG72" s="38"/>
       <c r="AH72" s="38"/>
     </row>
-    <row r="73" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73" s="18">
         <v>16</v>
@@ -5036,12 +6052,12 @@
       <c r="AG73" s="38"/>
       <c r="AH73" s="38"/>
     </row>
-    <row r="74" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E74" s="18">
         <v>30</v>
@@ -5064,30 +6080,42 @@
       <c r="U74" s="76"/>
       <c r="V74" s="77"/>
       <c r="W74" s="78"/>
-      <c r="X74" s="76"/>
-      <c r="Y74" s="76"/>
-      <c r="Z74" s="76"/>
-      <c r="AA74" s="76"/>
+      <c r="X74" s="76">
+        <f>(25+16+3+34+13+26+150+113+67+49+95+50+41+9+48+130+27+128+38+138+24+4*60+21)/60</f>
+        <v>24.75</v>
+      </c>
+      <c r="Y74" s="76">
+        <f>(29*60+44)/60</f>
+        <v>29.733333333333334</v>
+      </c>
+      <c r="Z74" s="76">
+        <f>(6*60+39)/60</f>
+        <v>6.65</v>
+      </c>
+      <c r="AA74" s="76">
+        <f>(18*60+14)/60</f>
+        <v>18.233333333333334</v>
+      </c>
       <c r="AB74" s="79"/>
       <c r="AC74" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>79.366666666666674</v>
       </c>
       <c r="AD74" s="44">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>-49.366666666666674</v>
       </c>
       <c r="AE74" s="38"/>
       <c r="AF74" s="38"/>
       <c r="AG74" s="38"/>
       <c r="AH74" s="38"/>
     </row>
-    <row r="75" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="96" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E75" s="18">
         <v>0</v>
@@ -5128,7 +6156,7 @@
       <c r="AG75" s="38"/>
       <c r="AH75" s="38"/>
     </row>
-    <row r="76" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
         <v>27</v>
       </c>
@@ -5172,12 +6200,12 @@
       <c r="AG76" s="38"/>
       <c r="AH76" s="38"/>
     </row>
-    <row r="77" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77" s="18">
         <v>0</v>
@@ -5218,7 +6246,7 @@
       <c r="AG77" s="38"/>
       <c r="AH77" s="38"/>
     </row>
-    <row r="78" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -5264,7 +6292,7 @@
       <c r="AG78" s="38"/>
       <c r="AH78" s="38"/>
     </row>
-    <row r="79" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -5310,7 +6338,7 @@
       <c r="AG79" s="38"/>
       <c r="AH79" s="38"/>
     </row>
-    <row r="80" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -5352,7 +6380,7 @@
       <c r="AG80" s="38"/>
       <c r="AH80" s="38"/>
     </row>
-    <row r="81" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
         <v>5</v>
       </c>
@@ -5396,7 +6424,7 @@
       <c r="AG81" s="38"/>
       <c r="AH81" s="38"/>
     </row>
-    <row r="82" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
         <v>3</v>
       </c>
@@ -5440,10 +6468,10 @@
       <c r="AG82" s="38"/>
       <c r="AH82" s="38"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="21"/>
@@ -5489,7 +6517,7 @@
       <c r="AG83" s="38"/>
       <c r="AH83" s="38"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>22</v>
@@ -5549,25 +6577,28 @@
       <c r="X84" s="76"/>
       <c r="Y84" s="76"/>
       <c r="Z84" s="76"/>
-      <c r="AA84" s="76"/>
+      <c r="AA84" s="76">
+        <f>(30+32)/60</f>
+        <v>1.0333333333333334</v>
+      </c>
       <c r="AB84" s="79"/>
       <c r="AC84" s="16">
         <f t="shared" si="4"/>
-        <v>7.9999999999999991</v>
+        <v>9.0333333333333332</v>
       </c>
       <c r="AD84" s="44">
         <f t="shared" si="5"/>
-        <v>-3.9999999999999991</v>
+        <v>-5.0333333333333332</v>
       </c>
       <c r="AE84" s="38"/>
       <c r="AF84" s="38"/>
       <c r="AG84" s="38"/>
       <c r="AH84" s="38"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="21"/>
@@ -5620,10 +6651,10 @@
       <c r="AG85" s="38"/>
       <c r="AH85" s="38"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="21"/>
@@ -5683,29 +6714,33 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="V86" s="77"/>
-      <c r="W86" s="78"/>
+      <c r="W86" s="78">
+        <v>1</v>
+      </c>
       <c r="X86" s="76"/>
-      <c r="Y86" s="76"/>
+      <c r="Y86" s="76">
+        <v>0.5</v>
+      </c>
       <c r="Z86" s="76"/>
       <c r="AA86" s="76"/>
       <c r="AB86" s="79"/>
       <c r="AC86" s="16">
         <f t="shared" si="4"/>
-        <v>5.5166666666666657</v>
+        <v>7.0166666666666657</v>
       </c>
       <c r="AD86" s="44">
         <f t="shared" si="5"/>
-        <v>8.4833333333333343</v>
+        <v>6.9833333333333343</v>
       </c>
       <c r="AE86" s="38"/>
       <c r="AF86" s="38"/>
       <c r="AG86" s="38"/>
       <c r="AH86" s="38"/>
     </row>
-    <row r="87" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="24"/>
       <c r="B87" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="26"/>
@@ -5737,165 +6772,220 @@
       <c r="T87" s="92"/>
       <c r="U87" s="92"/>
       <c r="V87" s="93"/>
-      <c r="W87" s="94"/>
+      <c r="W87" s="94">
+        <f>(2+17+62+72+21+3*60+15+75)/60</f>
+        <v>7.4</v>
+      </c>
       <c r="X87" s="92"/>
       <c r="Y87" s="92"/>
       <c r="Z87" s="92"/>
       <c r="AA87" s="92"/>
       <c r="AB87" s="95"/>
-      <c r="AC87" s="16">
+      <c r="AC87" s="101">
         <f t="shared" si="4"/>
-        <v>2.0166666666666666</v>
-      </c>
-      <c r="AD87" s="44">
+        <v>9.4166666666666679</v>
+      </c>
+      <c r="AD87" s="102">
         <f t="shared" si="5"/>
-        <v>1.9833333333333334</v>
+        <v>-5.4166666666666679</v>
       </c>
       <c r="AE87" s="38"/>
       <c r="AF87" s="38"/>
       <c r="AG87" s="38"/>
       <c r="AH87" s="38"/>
     </row>
-    <row r="88" spans="1:34" s="1" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+    <row r="88" spans="1:34" s="104" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="24"/>
+      <c r="B88" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="27">
+        <v>0</v>
+      </c>
+      <c r="F88" s="91"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="92"/>
+      <c r="I88" s="92"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="92"/>
+      <c r="L88" s="92"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="92"/>
+      <c r="P88" s="92"/>
+      <c r="Q88" s="92"/>
+      <c r="R88" s="92"/>
+      <c r="S88" s="92"/>
+      <c r="T88" s="92"/>
+      <c r="U88" s="92"/>
+      <c r="V88" s="93"/>
+      <c r="W88" s="94"/>
+      <c r="X88" s="92"/>
+      <c r="Y88" s="92"/>
+      <c r="Z88" s="92">
+        <f>(2*60+46)/60</f>
+        <v>2.7666666666666666</v>
+      </c>
+      <c r="AA88" s="92">
+        <f>(2*60+54)/60</f>
+        <v>2.9</v>
+      </c>
+      <c r="AB88" s="95"/>
+      <c r="AC88" s="101">
+        <f t="shared" si="4"/>
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="AD88" s="102">
+        <f t="shared" si="5"/>
+        <v>-5.6666666666666661</v>
+      </c>
+      <c r="AE88" s="103"/>
+      <c r="AF88" s="103"/>
+      <c r="AG88" s="103"/>
+      <c r="AH88" s="103"/>
+    </row>
+    <row r="89" spans="1:34" s="1" customFormat="1" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="30">
-        <f t="shared" ref="E88:AC88" si="6">SUM(E3:E87)</f>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="30">
+        <f>SUM(E3:E88)</f>
         <v>449</v>
       </c>
-      <c r="F88" s="30">
-        <f t="shared" si="6"/>
+      <c r="F89" s="30">
+        <f t="shared" ref="E89:AC89" si="6">SUM(F3:F87)</f>
         <v>3.083333333333333</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G89" s="31">
         <f t="shared" si="6"/>
         <v>7.25</v>
       </c>
-      <c r="H88" s="31">
+      <c r="H89" s="31">
         <f t="shared" si="6"/>
         <v>10.466666666666667</v>
       </c>
-      <c r="I88" s="31">
+      <c r="I89" s="31">
         <f t="shared" si="6"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="J88" s="31">
+      <c r="J89" s="31">
         <f t="shared" si="6"/>
         <v>7.5833333333333339</v>
       </c>
-      <c r="K88" s="31">
+      <c r="K89" s="31">
         <f t="shared" si="6"/>
         <v>16.133333333333336</v>
       </c>
-      <c r="L88" s="31">
+      <c r="L89" s="31">
         <f t="shared" si="6"/>
         <v>16.916666666666664</v>
       </c>
-      <c r="M88" s="35">
+      <c r="M89" s="35">
         <f t="shared" si="6"/>
         <v>29.933333333333334</v>
       </c>
-      <c r="N88" s="32">
+      <c r="N89" s="32">
         <f t="shared" si="6"/>
         <v>15.183333333333334</v>
       </c>
-      <c r="O88" s="31">
+      <c r="O89" s="31">
         <f t="shared" si="6"/>
         <v>4.2833333333333341</v>
       </c>
-      <c r="P88" s="31">
+      <c r="P89" s="31">
         <f t="shared" si="6"/>
         <v>9.9666666666666668</v>
       </c>
-      <c r="Q88" s="31">
+      <c r="Q89" s="31">
         <f t="shared" si="6"/>
         <v>14.666666666666668</v>
       </c>
-      <c r="R88" s="31">
+      <c r="R89" s="31">
         <f t="shared" si="6"/>
         <v>14.283333333333333</v>
       </c>
-      <c r="S88" s="31">
+      <c r="S89" s="31">
         <f t="shared" si="6"/>
         <v>6.4333333333333336</v>
       </c>
-      <c r="T88" s="31">
+      <c r="T89" s="31">
         <f t="shared" si="6"/>
         <v>17.383333333333333</v>
       </c>
-      <c r="U88" s="31">
+      <c r="U89" s="31">
         <f t="shared" si="6"/>
         <v>11.55</v>
       </c>
-      <c r="V88" s="35">
+      <c r="V89" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W88" s="32">
+      <c r="W89" s="32">
         <f t="shared" si="6"/>
-        <v>8.2666666666666675</v>
-      </c>
-      <c r="X88" s="31">
+        <v>26.366666666666667</v>
+      </c>
+      <c r="X89" s="31">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="31">
+        <v>38.233333333333334</v>
+      </c>
+      <c r="Y89" s="31">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="31">
+        <v>52.566666666666663</v>
+      </c>
+      <c r="Z89" s="31">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="31">
+        <v>28.049999999999997</v>
+      </c>
+      <c r="AA89" s="31">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="42">
+        <v>22.81666666666667</v>
+      </c>
+      <c r="AB89" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC88" s="32">
+      <c r="AC89" s="32">
         <f t="shared" si="6"/>
-        <v>199.04999999999998</v>
-      </c>
-      <c r="AD88" s="45">
+        <v>358.81666666666672</v>
+      </c>
+      <c r="AD89" s="45">
         <f t="shared" si="5"/>
-        <v>249.95000000000002</v>
-      </c>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="39"/>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AE89" s="40"/>
-      <c r="AF89" s="40"/>
-      <c r="AG89" s="40"/>
-      <c r="AH89" s="40"/>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+        <v>90.18333333333328</v>
+      </c>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE90" s="40"/>
       <c r="AF90" s="40"/>
       <c r="AG90" s="40"/>
       <c r="AH90" s="40"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE91" s="40"/>
       <c r="AF91" s="40"/>
       <c r="AG91" s="40"/>
       <c r="AH91" s="40"/>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE92" s="40"/>
+      <c r="AF92" s="40"/>
+      <c r="AG92" s="40"/>
+      <c r="AH92" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="AD3:AD87">
+  <conditionalFormatting sqref="AD3:AD88">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-2"/>
@@ -5907,7 +6997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:AB87 F50:O50 Q50:S50 U50:AB50 F3:AB28 F30:AB49 H29:AB29 F29">
+  <conditionalFormatting sqref="F51:AB88 F50:O50 Q50:S50 U50:AB50 F3:AB28 F30:AB49 H29:AB29 F29">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
@@ -5922,7 +7012,8 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;F&amp;R&amp;D</oddHeader>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5987,20 +7078,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <tri xmlns="3d054a7a-48b3-4811-83db-fac625e0d17d">11</tri>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6021,18 +7112,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADF57AE-5DE3-40C7-A6CA-0DD6B6A28943}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3d054a7a-48b3-4811-83db-fac625e0d17d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82EA3D28-CB0F-46CB-B3A3-7D5EFFA695CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>